--- a/jmeter/test-result/ExcelSummary/★Test-Summary.xlsx
+++ b/jmeter/test-result/ExcelSummary/★Test-Summary.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\api-test-scripts\jmeter\test-result\ExcelSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC72937E-BF3F-4BDD-BF63-5E932DF0DB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1179DB64-F603-4D1F-AE78-1EAE1AD0ACCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="852" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總覽-交易服務" sheetId="21" r:id="rId1"/>
-    <sheet name="總覽-Data Service" sheetId="22" r:id="rId2"/>
+    <sheet name="jersey-microservice-gateway" sheetId="24" r:id="rId2"/>
+    <sheet name="springboot-microservice-gateway" sheetId="26" r:id="rId3"/>
+    <sheet name="總覽-Data Service" sheetId="22" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
@@ -88,10 +88,29 @@
     <externalReference r:id="rId71"/>
     <externalReference r:id="rId72"/>
     <externalReference r:id="rId73"/>
+    <externalReference r:id="rId74"/>
+    <externalReference r:id="rId75"/>
+    <externalReference r:id="rId76"/>
+    <externalReference r:id="rId77"/>
+    <externalReference r:id="rId78"/>
+    <externalReference r:id="rId79"/>
+    <externalReference r:id="rId80"/>
+    <externalReference r:id="rId81"/>
+    <externalReference r:id="rId82"/>
+    <externalReference r:id="rId83"/>
+    <externalReference r:id="rId84"/>
+    <externalReference r:id="rId85"/>
+    <externalReference r:id="rId86"/>
+    <externalReference r:id="rId87"/>
+    <externalReference r:id="rId88"/>
+    <externalReference r:id="rId89"/>
+    <externalReference r:id="rId90"/>
+    <externalReference r:id="rId91"/>
+    <externalReference r:id="rId92"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'總覽-Data Service'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'總覽-交易服務'!$A$1:$H$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'總覽-Data Service'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'總覽-交易服務'!$A$1:$N$70</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -103,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="106">
   <si>
     <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,32 +495,7 @@
   </si>
   <si>
     <t>總次數
-2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總次數
-5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總次數
-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總次數
-1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總次數
 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總次數
-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -516,11 +510,6 @@
 這些人員會在 60 分鐘分批啟動
 每位人員會連續處理 2 筆信用卡作業
 每位人員的每次請求之間有 5 秒間隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總次數
-200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -603,16 +592,52 @@
     <t>springboot-microservice-jpa-cuscredit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>請求總次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加總</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算加總</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance數量為1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance數量為2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Threads(user)：150
+Ramp-up period(seconds)：60
+Loop Count：2
+Thread Delay(in milliseconds)：5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +697,21 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -681,7 +721,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -741,51 +781,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -902,6 +902,9 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,23 +914,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,6 +1000,3611 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>jersey-microservice-gateway </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>trasactions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW"/>
+              <a:t>模組的請求平均回覆時間</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>instance數量為1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7823243099123697E-3"/>
+                  <c:y val="2.3284722655118422E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-C9A7-473E-9F7E-B005D5510B1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2340432057721615E-2"/>
+                  <c:y val="-5.2631907037119965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C9A7-473E-9F7E-B005D5510B1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4599026537020528E-2"/>
+                  <c:y val="-5.238402558019295E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C9A7-473E-9F7E-B005D5510B1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11963994532623196"/>
+                  <c:y val="-6.1615122314041565E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C9A7-473E-9F7E-B005D5510B1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4599026537020584E-2"/>
+                  <c:y val="-7.1094371900817188E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:noFill/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>137.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1924.9263330000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2074.3674000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C9A7-473E-9F7E-B005D5510B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>instance數量為2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1211134818072166E-2"/>
+                  <c:y val="-5.1226389841260531E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-C9A7-473E-9F7E-B005D5510B1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7823243099123697E-3"/>
+                  <c:y val="1.4632339729603866E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7823243099123697E-3"/>
+                  <c:y val="5.6875497520653795E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-C9A7-473E-9F7E-B005D5510B1B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1129297239649479E-2"/>
+                  <c:y val="5.6875497520653753E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:noFill/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>128.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.13200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286.07900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1744.3236669999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013.7991999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C9A7-473E-9F7E-B005D5510B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1900989168"/>
+        <c:axId val="661189360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1900989168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>請求總次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661189360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661189360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>毫秒</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1900989168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>springboot-microservice-gateway</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>trasactions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>模組的請求平均回覆時間</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'springboot-microservice-gateway'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>instance數量為1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8969835389020757E-2"/>
+                  <c:y val="-5.7307951268284592E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-CC48-44BF-A8A7-F11470412B19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>212.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>224.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204.42</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00_ ">
+                  <c:v>342.90100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>3492.1334999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-CC48-44BF-A8A7-F11470412B19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'springboot-microservice-gateway'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>instance數量為2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.631654887704408E-2"/>
+                  <c:y val="2.6732874258072262E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-CC48-44BF-A8A7-F11470412B19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4291125737561024E-3"/>
+                  <c:y val="2.5264912240144717E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-CC48-44BF-A8A7-F11470412B19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1206378877730844E-2"/>
+                  <c:y val="2.526491224014463E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-CC48-44BF-A8A7-F11470412B19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1206378877730844E-2"/>
+                  <c:y val="1.6090149628097024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-CC48-44BF-A8A7-F11470412B19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.587034496271684E-2"/>
+                  <c:y val="5.278920007628779E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-CC48-44BF-A8A7-F11470412B19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>205.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202.06</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00_ ">
+                  <c:v>256.37</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>3212.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-CC48-44BF-A8A7-F11470412B19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1981147344"/>
+        <c:axId val="1981148176"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-TW"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>212.17</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>205.69</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-CC48-44BF-A8A7-F11470412B19}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-TW"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$4:$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>224.21</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>206.02</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-CC48-44BF-A8A7-F11470412B19}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-TW"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$5:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>204.42</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>202.06</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-CC48-44BF-A8A7-F11470412B19}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-TW"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$6:$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00_ </c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>342.90100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>256.37</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-CC48-44BF-A8A7-F11470412B19}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-TW"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'springboot-microservice-gateway'!$A$7:$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00_ </c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3492.1334999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3212.97</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-CC48-44BF-A8A7-F11470412B19}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1981147344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>請求總次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981148176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1981148176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>毫秒</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981147344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368301</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>233830</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180789</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8D4182-E1A3-46B1-A2E0-61DA1F83A96C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781706</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C96D80D-275C-4870-A8B6-C77C2FE905D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -959,7 +4612,7 @@
       <sheetName val="1-jersey-monolith-billing-100in"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="102">
           <cell r="B102">
             <v>64.489999999999995</v>
@@ -1168,7 +4821,7 @@
       <sheetName val="1-jersey-monolith-dispute-20ins"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="22">
           <cell r="B22">
             <v>50.55</v>
@@ -1222,10 +4875,67 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="3-jersey-microservice-transacti"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3002">
+          <cell r="B3002">
+            <v>2903.1616666666669</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="3-jersey-microservice-transacti"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5002">
+          <cell r="B5002">
+            <v>1894.5781999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="3-jersey-microservice-transacti"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10002">
+          <cell r="B10002">
+            <v>2005.6575</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-b"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="102">
           <cell r="B102">
             <v>80.97</v>
@@ -1237,14 +4947,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-d"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="22">
           <cell r="B22">
             <v>193.75</v>
@@ -1256,14 +4966,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-m"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="602">
           <cell r="B602">
             <v>72.833333330000002</v>
@@ -1275,14 +4985,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1002">
           <cell r="B1002">
             <v>118.33499999999999</v>
@@ -1294,14 +5004,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1002">
           <cell r="B1002">
             <v>118.13200000000001</v>
@@ -1313,14 +5023,33 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1-jersey-monolith-management-20"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="602">
+          <cell r="B602">
+            <v>53.776666669999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2002">
           <cell r="B2002">
             <v>296.32600000000002</v>
@@ -1332,14 +5061,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2002">
           <cell r="B2002">
             <v>286.07900000000001</v>
@@ -1351,14 +5080,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="3002">
           <cell r="B3002">
             <v>1924.9263330000001</v>
@@ -1370,33 +5099,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1-jersey-monolith-management-20"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="602">
-          <cell r="B602">
-            <v>53.776666669999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="3002">
           <cell r="B3002">
             <v>1744.3236669999999</v>
@@ -1408,14 +5118,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="5002">
           <cell r="B5002">
             <v>2074.3674000000001</v>
@@ -1427,14 +5137,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="5002">
           <cell r="B5002">
             <v>2013.7991999999999</v>
@@ -1446,14 +5156,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="10002">
           <cell r="B10002">
             <v>2075.6810999999998</v>
@@ -1465,14 +5175,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="10002">
           <cell r="B10002">
             <v>2499.2819</v>
@@ -1484,7 +5194,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1503,7 +5213,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1522,7 +5232,26 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1-jersey-monolith-transactions-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="1002">
+          <cell r="B1002">
+            <v>51.219000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1541,7 +5270,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1560,7 +5289,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1579,26 +5308,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1-jersey-monolith-transactions-"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1002">
-          <cell r="B1002">
-            <v>51.219000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1617,7 +5327,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1636,7 +5346,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1655,7 +5365,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1674,7 +5384,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1693,7 +5403,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1712,63 +5422,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="6-springboot-microservice-trans"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1002">
-          <cell r="B1002">
-            <v>353.48700000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="6-springboot-microservice-trans"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2002">
-          <cell r="B2002">
-            <v>3777.9575</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="6-springboot-microservice-trans"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3002">
-          <cell r="B3002">
-            <v>8178.557667</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1776,10 +5429,10 @@
       <sheetName val="6-springboot-microservice-trans"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5002">
-          <cell r="B5002">
-            <v>15382.041999999999</v>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="1002">
+          <cell r="B1002">
+            <v>353.48700000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -1815,6 +5468,63 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2002">
+          <cell r="B2002">
+            <v>3777.9575</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6-springboot-microservice-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3002">
+          <cell r="B3002">
+            <v>8178.557667</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6-springboot-microservice-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5002">
+          <cell r="B5002">
+            <v>15382.041999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6-springboot-microservice-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="10002">
           <cell r="B10002">
             <v>38316.040399999998</v>
@@ -1826,7 +5536,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1845,7 +5555,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1864,7 +5574,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1883,7 +5593,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1902,7 +5612,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1921,7 +5631,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1932,63 +5642,6 @@
         <row r="2002">
           <cell r="B2002">
             <v>3492.1334999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7-springboot-microservice-gatew"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2002">
-          <cell r="B2002">
-            <v>3212.97</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7-springboot-microservice-gatew"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3002">
-          <cell r="B3002">
-            <v>7835.5426669999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7-springboot-microservice-gatew"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3002">
-          <cell r="B3002">
-            <v>7646.0510000000004</v>
           </cell>
         </row>
       </sheetData>
@@ -2024,6 +5677,63 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2002">
+          <cell r="B2002">
+            <v>3212.97</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3002">
+          <cell r="B3002">
+            <v>7835.5426669999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3002">
+          <cell r="B3002">
+            <v>7646.0510000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="5002">
           <cell r="B5002">
             <v>15258.687400000001</v>
@@ -2035,7 +5745,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2054,7 +5764,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2073,7 +5783,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2092,17 +5802,17 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="3-jersey-microservice-transacti"/>
+      <sheetName val="a-jersey-microservice-jdbc-bill"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="10002">
-          <cell r="B10002">
-            <v>2005.6575</v>
+        <row r="902">
+          <cell r="B902">
+            <v>34.848888888888887</v>
           </cell>
         </row>
       </sheetData>
@@ -2111,17 +5821,17 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="3-jersey-microservice-transacti"/>
+      <sheetName val="a-jersey-microservice-jdbc-cusc"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5002">
-          <cell r="B5002">
-            <v>1894.5781999999999</v>
+        <row r="502">
+          <cell r="B502">
+            <v>66.483999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -2130,26 +5840,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="3-jersey-microservice-transacti"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3002">
-          <cell r="B3002">
-            <v>2903.1616666666669</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2160,44 +5851,6 @@
         <row r="902">
           <cell r="B902">
             <v>28.174444439999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="b-springboot-microservice-jpa-b"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1002">
-          <cell r="B1002">
-            <v>234.75200000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="b-springboot-microservice-jpa-c"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="502">
-          <cell r="B502">
-            <v>64.343999999999994</v>
           </cell>
         </row>
       </sheetData>
@@ -2229,13 +5882,13 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="a-jersey-microservice-jdbc-bill"/>
+      <sheetName val="b-springboot-microservice-jpa-b"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="902">
-          <cell r="B902">
-            <v>34.848888888888887</v>
+        <row r="1002">
+          <cell r="B1002">
+            <v>234.75200000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2248,13 +5901,165 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="a-jersey-microservice-jdbc-cusc"/>
+      <sheetName val="b-springboot-microservice-jpa-c"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="502">
           <cell r="B502">
-            <v>66.483999999999995</v>
+            <v>64.343999999999994</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1-jersey-monolith-transactions-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>44.575000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="2-jersey-modular-monolith-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>43.854999999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="5-springboot-modular-monolith-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>50.115000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6-springboot-microservice-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>214.22</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>212.17</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>205.685</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink78.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="3-jersey-microservice-transacti"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>142.63</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink79.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="4-jersey-microservice-gateway-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>137.57</v>
           </cell>
         </row>
       </sheetData>
@@ -2274,6 +6079,177 @@
         <row r="10002">
           <cell r="B10002">
             <v>203.24010000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink80.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="4-jersey-microservice-gateway-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>128.47999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink81.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>202.06</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink82.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>206.01499999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink83.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>204.41499999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink84.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>224.21</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink85.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6-springboot-microservice-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>198.745</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink86.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6-springboot-microservice-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>214.91499999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink87.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="5-springboot-modular-monolith-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="602">
+          <cell r="B602">
+            <v>51.391666666666666</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink88.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="5-springboot-modular-monolith-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="402">
+          <cell r="B402">
+            <v>48.795000000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -2564,11 +6540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6494EEAF-4EED-4EBB-957E-12F2535BD3AE}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomLeft" activeCell="M65" sqref="C64:M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2581,10 +6557,9 @@
     <col min="6" max="6" width="44.5" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="15.69921875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.796875" style="2"/>
   </cols>
@@ -2594,7 +6569,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
@@ -2627,14 +6602,14 @@
         <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2668,13 +6643,13 @@
       <c r="L2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>84</v>
+      <c r="M2" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2685,7 +6660,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -2706,13 +6681,13 @@
       <c r="L3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>85</v>
+      <c r="M3" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2720,10 +6695,10 @@
         <v>30</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -2744,455 +6719,455 @@
       <c r="L4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>88</v>
+      <c r="M4" s="7">
+        <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="35">
+        <f>'[72]1-jersey-monolith-transactions-'!$B$202</f>
+        <v>44.575000000000003</v>
+      </c>
+      <c r="I5" s="40">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H6" s="33">
         <f>'[4]1-jersey-monolith-transactions-'!$B$1002</f>
         <v>51.219000000000001</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I6" s="36">
         <v>0</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>79</v>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="7">
+        <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="5" t="s">
+    <row r="7" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H7" s="33">
         <f>'[5]1-jersey-monolith-transactions-'!$B$2002</f>
         <v>44.276000000000003</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I7" s="36">
         <v>0</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>82</v>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="5" t="s">
+    <row r="8" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H8" s="33">
         <f>'[6]1-jersey-monolith-transactions-'!$B$3002</f>
         <v>39.337666669999997</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I8" s="36">
         <v>0</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>83</v>
+      <c r="J8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="18">
+        <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="5" t="s">
+    <row r="9" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G9" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H9" s="33">
         <f>'[7]1-jersey-monolith-transactions-'!$B$5002</f>
         <v>42.184600000000003</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I9" s="36">
         <v>0</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>80</v>
+      <c r="J9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="18">
+        <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="23" t="s">
+    <row r="10" spans="1:13" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>1</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H10" s="35">
         <f>'[8]1-jersey-monolith-transactions-'!$B$10002</f>
         <v>203.24010000000001</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I10" s="26">
         <f>327/10000</f>
         <v>3.27E-2</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>81</v>
+      <c r="J10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="12">
+        <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+    <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H11" s="35">
         <f>'[9]2-jersey-modular-monolith-billi'!$B$102</f>
         <v>61.3</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I11" s="40">
         <v>0</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>84</v>
+      <c r="J11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="7">
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="5" t="s">
+    <row r="12" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F12" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H12" s="35">
         <f>'[10]2-jersey-modular-monolith-dispu'!$B$22</f>
         <v>50.95</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I12" s="40">
         <v>0</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>85</v>
+      <c r="J12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="7">
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="5" t="s">
+    <row r="13" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="E13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H13" s="35">
         <f>'[11]2-jersey-modular-monolith-manag'!$B$602</f>
         <v>48.311666670000001</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I13" s="40">
         <v>0</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>88</v>
+      <c r="J13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="7">
+        <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="5" t="s">
+    <row r="14" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="E14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35">
+        <f>'[73]2-jersey-modular-monolith-trans'!$B$202</f>
+        <v>43.854999999999997</v>
+      </c>
+      <c r="I14" s="40">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H15" s="35">
         <f>'[12]2-jersey-modular-monolith-trans'!$B$1002</f>
         <v>41.392000000000003</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I15" s="40">
         <v>0</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>79</v>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="5" t="s">
+    <row r="16" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H16" s="35">
         <f>'[13]2-jersey-modular-monolith-trans'!$B$2002</f>
         <v>38.018000000000001</v>
       </c>
-      <c r="I14" s="40">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35">
-        <f>'[14]2-jersey-modular-monolith-trans'!$B$3002</f>
-        <v>35.914999999999999</v>
-      </c>
-      <c r="I15" s="40">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="35">
-        <f>'[15]2-jersey-modular-monolith-trans'!$B$5002</f>
-        <v>40.210599999999999</v>
-      </c>
       <c r="I16" s="40">
         <v>0</v>
       </c>
@@ -3205,852 +7180,853 @@
       <c r="L16" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="18" t="s">
-        <v>80</v>
+      <c r="M16" s="7">
+        <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35">
+        <f>'[14]2-jersey-modular-monolith-trans'!$B$3002</f>
+        <v>35.914999999999999</v>
+      </c>
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="35">
+        <f>'[15]2-jersey-modular-monolith-trans'!$B$5002</f>
+        <v>40.210599999999999</v>
+      </c>
+      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="18">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G19" s="12">
         <v>1</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H19" s="35">
         <f>'[16]2-jersey-modular-monolith-trans'!$B$10002</f>
         <v>405.17349999999999</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I19" s="26">
         <f>646/10000</f>
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>81</v>
+      <c r="J19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="12">
+        <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+    <row r="20" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A20" s="43">
         <v>3</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B20" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H20" s="35">
         <f>'[17]3-jersey-microservice-billing-1'!$B$102</f>
         <v>127.16</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I20" s="26">
         <v>0</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>84</v>
+      <c r="J20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="7">
+        <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="5" t="s">
+    <row r="21" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H21" s="35">
         <f>'[18]3-jersey-microservice-dispute-2'!$B$22</f>
         <v>277.3</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I21" s="26">
         <v>0</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>85</v>
+      <c r="J21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="7">
+        <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="5" t="s">
+    <row r="22" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="E22" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H22" s="35">
         <f>'[19]3-jersey-microservice-managemen'!$B$602</f>
         <v>86.263333333333335</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I22" s="26">
         <v>0</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>88</v>
+      <c r="J22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="7">
+        <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="4" t="s">
+    <row r="23" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E23" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="35">
+        <f>'[78]3-jersey-microservice-transacti'!$B$202</f>
+        <v>142.63</v>
+      </c>
+      <c r="I23" s="40">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G24" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H24" s="35">
         <f>'[20]3-jersey-microservice-transacti'!$B$1002</f>
         <v>137.572</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I24" s="26">
         <v>0</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>79</v>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="4" t="s">
+    <row r="25" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E25" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G25" s="7">
         <v>1</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H25" s="35">
         <f>'[21]3-jersey-microservice-transacti'!$B$2002</f>
         <v>793.76350000000002</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I25" s="26">
         <v>0</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>82</v>
+      <c r="J25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="4" t="s">
+    <row r="26" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G26" s="18">
         <v>1</v>
       </c>
-      <c r="H23" s="35">
-        <f>'[66]3-jersey-microservice-transacti'!$B$3002</f>
+      <c r="H26" s="35">
+        <f>'[22]3-jersey-microservice-transacti'!$B$3002</f>
         <v>2903.1616666666669</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I26" s="40">
         <f>1161/3000</f>
         <v>0.38700000000000001</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>83</v>
+      <c r="J26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="18">
+        <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="4" t="s">
+    <row r="27" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F27" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G27" s="18">
         <v>1</v>
       </c>
-      <c r="H24" s="35">
-        <f>'[65]3-jersey-microservice-transacti'!$B$5002</f>
+      <c r="H27" s="35">
+        <f>'[23]3-jersey-microservice-transacti'!$B$5002</f>
         <v>1894.5781999999999</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I27" s="40">
         <f>3331/5000</f>
         <v>0.66620000000000001</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>80</v>
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="18">
+        <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="11" t="s">
+    <row r="28" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E28" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G28" s="12">
         <v>1</v>
       </c>
-      <c r="H25" s="35">
-        <f>'[64]3-jersey-microservice-transacti'!$B$10002</f>
+      <c r="H28" s="35">
+        <f>'[24]3-jersey-microservice-transacti'!$B$10002</f>
         <v>2005.6575</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I28" s="26">
         <f>8717/10000</f>
         <v>0.87170000000000003</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>81</v>
+      <c r="J28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="12">
+        <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+    <row r="29" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A29" s="43">
         <v>4</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B29" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F29" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="33">
-        <f>'[22]4-jersey-microservice-gateway-b'!$B$102</f>
-        <v>80.97</v>
-      </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="33">
-        <f>'[23]4-jersey-microservice-gateway-d'!$B$22</f>
-        <v>193.75</v>
-      </c>
-      <c r="I27" s="37">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="33">
-        <f>'[24]4-jersey-microservice-gateway-m'!$B$602</f>
-        <v>72.833333330000002</v>
-      </c>
-      <c r="I28" s="37">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="33">
-        <f>'[25]4-jersey-microservice-gateway-t'!$B$1002</f>
-        <v>118.33499999999999</v>
+        <f>'[25]4-jersey-microservice-gateway-b'!$B$102</f>
+        <v>80.97</v>
       </c>
       <c r="I29" s="37">
         <v>0</v>
       </c>
-      <c r="J29" s="7">
-        <v>2</v>
-      </c>
-      <c r="K29" s="27">
-        <f>'[26]4-jersey-microservice-gateway-t'!$B$1002</f>
-        <v>118.13200000000001</v>
-      </c>
-      <c r="L29" s="37">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>79</v>
+      <c r="J29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="7">
+        <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+    <row r="30" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
       </c>
       <c r="H30" s="33">
-        <f>'[27]4-jersey-microservice-gateway-t'!$B$2002</f>
-        <v>296.32600000000002</v>
+        <f>'[26]4-jersey-microservice-gateway-d'!$B$22</f>
+        <v>193.75</v>
       </c>
       <c r="I30" s="37">
         <v>0</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="33">
+        <f>'[27]4-jersey-microservice-gateway-m'!$B$602</f>
+        <v>72.833333330000002</v>
+      </c>
+      <c r="I31" s="37">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="35">
+        <f>'[79]4-jersey-microservice-gateway-t'!$B$202</f>
+        <v>137.57</v>
+      </c>
+      <c r="I32" s="40">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
         <v>2</v>
       </c>
-      <c r="K30" s="30">
-        <f>'[28]4-jersey-microservice-gateway-t'!$B$2002</f>
-        <v>286.07900000000001</v>
-      </c>
-      <c r="L30" s="37">
+      <c r="K32" s="29">
+        <f>'[80]4-jersey-microservice-gateway-t'!$B$202</f>
+        <v>128.47999999999999</v>
+      </c>
+      <c r="L32" s="39">
         <v>0</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>82</v>
+      <c r="M32" s="12">
+        <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="15" t="s">
+    <row r="33" spans="1:14" ht="58" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="E33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="H31" s="33">
-        <f>'[29]4-jersey-microservice-gateway-t'!$B$3002</f>
-        <v>1924.9263330000001</v>
-      </c>
-      <c r="I31" s="36">
+      <c r="H33" s="33">
+        <f>'[28]4-jersey-microservice-gateway-t'!$B$1002</f>
+        <v>118.33499999999999</v>
+      </c>
+      <c r="I33" s="37">
         <v>0</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J33" s="7">
         <v>2</v>
       </c>
-      <c r="K31" s="30">
-        <f>'[30]4-jersey-microservice-gateway-t'!$B$3002</f>
-        <v>1744.3236669999999</v>
-      </c>
-      <c r="L31" s="36">
+      <c r="K33" s="27">
+        <f>'[29]4-jersey-microservice-gateway-t'!$B$1002</f>
+        <v>118.13200000000001</v>
+      </c>
+      <c r="L33" s="37">
         <v>0</v>
       </c>
-      <c r="M31" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N31" s="20"/>
+      <c r="M33" s="7">
+        <v>500</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="15" t="s">
+    <row r="34" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1</v>
-      </c>
-      <c r="H32" s="33">
-        <f>'[31]4-jersey-microservice-gateway-t'!$B$5002</f>
-        <v>2074.3674000000001</v>
-      </c>
-      <c r="I32" s="36">
-        <v>0</v>
-      </c>
-      <c r="J32" s="18">
-        <v>2</v>
-      </c>
-      <c r="K32" s="30">
-        <f>'[32]4-jersey-microservice-gateway-t'!$B$5002</f>
-        <v>2013.7991999999999</v>
-      </c>
-      <c r="L32" s="36">
-        <v>0</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="12">
-        <v>1</v>
-      </c>
-      <c r="H33" s="35">
-        <f>'[33]4-jersey-microservice-gateway-t'!$B$10002</f>
-        <v>2075.6810999999998</v>
-      </c>
-      <c r="I33" s="26">
-        <v>0</v>
-      </c>
-      <c r="J33" s="12">
-        <v>2</v>
-      </c>
-      <c r="K33" s="31">
-        <f>'[34]4-jersey-microservice-gateway-t'!$B$10002</f>
-        <v>2499.2819</v>
-      </c>
-      <c r="L33" s="26">
-        <v>0</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N33" s="24"/>
-    </row>
-    <row r="34" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
-        <v>5</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E34" s="17" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G34" s="7">
         <v>1</v>
       </c>
-      <c r="H34" s="34">
-        <f>'[35]5-springboot-modular-monolith-b'!$B$102</f>
-        <v>41.31</v>
-      </c>
-      <c r="I34" s="26">
+      <c r="H34" s="33">
+        <f>'[30]4-jersey-microservice-gateway-t'!$B$2002</f>
+        <v>296.32600000000002</v>
+      </c>
+      <c r="I34" s="37">
         <v>0</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>84</v>
+      <c r="J34" s="7">
+        <v>2</v>
+      </c>
+      <c r="K34" s="30">
+        <f>'[31]4-jersey-microservice-gateway-t'!$B$2002</f>
+        <v>286.07900000000001</v>
+      </c>
+      <c r="L34" s="37">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>28</v>
+    <row r="35" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="7">
+        <v>78</v>
+      </c>
+      <c r="G35" s="18">
         <v>1</v>
       </c>
-      <c r="H35" s="34">
-        <f>'[36]5-springboot-modular-monolith-d'!$B$22</f>
-        <v>42.4</v>
-      </c>
-      <c r="I35" s="26">
+      <c r="H35" s="33">
+        <f>'[32]4-jersey-microservice-gateway-t'!$B$3002</f>
+        <v>1924.9263330000001</v>
+      </c>
+      <c r="I35" s="36">
         <v>0</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="J35" s="18">
+        <v>2</v>
+      </c>
+      <c r="K35" s="30">
+        <f>'[33]4-jersey-microservice-gateway-t'!$B$3002</f>
+        <v>1744.3236669999999</v>
+      </c>
+      <c r="L35" s="36">
+        <v>0</v>
+      </c>
+      <c r="M35" s="18">
+        <v>1500</v>
+      </c>
+      <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>30</v>
+    <row r="36" spans="1:14" s="13" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="7">
+        <v>73</v>
+      </c>
+      <c r="G36" s="18">
         <v>1</v>
       </c>
-      <c r="H36" s="34">
-        <f>'[37]5-springboot-modular-monolith-m'!$B$602</f>
-        <v>41.006666670000001</v>
-      </c>
-      <c r="I36" s="26">
+      <c r="H36" s="33">
+        <f>'[34]4-jersey-microservice-gateway-t'!$B$5002</f>
+        <v>2074.3674000000001</v>
+      </c>
+      <c r="I36" s="36">
         <v>0</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>88</v>
+      <c r="J36" s="18">
+        <v>2</v>
+      </c>
+      <c r="K36" s="30">
+        <f>'[35]4-jersey-microservice-gateway-t'!$B$5002</f>
+        <v>2013.7991999999999</v>
+      </c>
+      <c r="L36" s="36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
+        <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="4" t="s">
+    <row r="37" spans="1:14" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="E37" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="51">
         <v>1</v>
       </c>
-      <c r="H37" s="35">
-        <f>'[38]5-springboot-modular-monolith-t'!$B$1002</f>
-        <v>52.707999999999998</v>
-      </c>
-      <c r="I37" s="26">
+      <c r="H37" s="52">
+        <f>'[36]4-jersey-microservice-gateway-t'!$B$10002</f>
+        <v>2075.6810999999998</v>
+      </c>
+      <c r="I37" s="53">
         <v>0</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="J37" s="51">
+        <v>2</v>
+      </c>
+      <c r="K37" s="54">
+        <f>'[37]4-jersey-microservice-gateway-t'!$B$10002</f>
+        <v>2499.2819</v>
+      </c>
+      <c r="L37" s="53">
+        <v>0</v>
+      </c>
+      <c r="M37" s="51">
+        <v>5000</v>
+      </c>
+      <c r="N37" s="24"/>
     </row>
-    <row r="38" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+    <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.3">
+      <c r="A38" s="43">
+        <v>5</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="G38" s="7">
         <v>1</v>
       </c>
-      <c r="H38" s="35">
-        <f>'[39]5-springboot-modular-monolith-t'!$B$2002</f>
-        <v>47.884</v>
+      <c r="H38" s="34">
+        <f>'[38]5-springboot-modular-monolith-b'!$B$102</f>
+        <v>41.31</v>
       </c>
       <c r="I38" s="26">
         <v>0</v>
@@ -4061,34 +8037,34 @@
       <c r="K38" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>82</v>
+      <c r="L38" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="7">
+        <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
+    <row r="39" spans="1:14" ht="58" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="18">
+        <v>83</v>
+      </c>
+      <c r="G39" s="7">
         <v>1</v>
       </c>
-      <c r="H39" s="35">
-        <f>'[40]5-springboot-modular-monolith-t'!$B$3002</f>
-        <v>47.319333329999999</v>
+      <c r="H39" s="34">
+        <f>'[39]5-springboot-modular-monolith-d'!$B$22</f>
+        <v>42.4</v>
       </c>
       <c r="I39" s="26">
         <v>0</v>
@@ -4099,34 +8075,34 @@
       <c r="K39" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>83</v>
+      <c r="L39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="7">
+        <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
+    <row r="40" spans="1:14" ht="58" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="18">
+        <v>81</v>
+      </c>
+      <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="H40" s="35">
-        <f>'[41]5-springboot-modular-monolith-t'!$B$5002</f>
-        <v>72.634399999999999</v>
+      <c r="H40" s="34">
+        <f>'[40]5-springboot-modular-monolith-m'!$B$602</f>
+        <v>41.006666670000001</v>
       </c>
       <c r="I40" s="26">
         <v>0</v>
@@ -4137,36 +8113,36 @@
       <c r="K40" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L40" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>80</v>
+      <c r="L40" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="7">
+        <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" s="44"/>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G41" s="12">
         <v>1</v>
       </c>
       <c r="H41" s="35">
-        <f>'[42]5-springboot-modular-monolith-t'!$B$10002</f>
-        <v>3354.4063999999998</v>
-      </c>
-      <c r="I41" s="26">
+        <f>'[74]5-springboot-modular-monolith-t'!$B$202</f>
+        <v>50.115000000000002</v>
+      </c>
+      <c r="I41" s="40">
         <v>0</v>
       </c>
       <c r="J41" s="12" t="s">
@@ -4178,111 +8154,107 @@
       <c r="L41" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M41" s="12" t="s">
+      <c r="M41" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="21" t="s">
         <v>81</v>
       </c>
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+      <c r="H42" s="35">
+        <f>'[88]5-springboot-modular-monolith-t'!$B$402</f>
+        <v>48.795000000000002</v>
+      </c>
+      <c r="I42" s="40">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="12">
+        <v>200</v>
+      </c>
     </row>
-    <row r="42" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
-        <v>6</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="7">
+    <row r="43" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="12">
         <v>1</v>
       </c>
-      <c r="H42" s="41">
-        <f>'[43]6-springboot-microservice-billi'!$B$102</f>
-        <v>87.72</v>
-      </c>
-      <c r="I42" s="26">
+      <c r="H43" s="35">
+        <f>'[87]5-springboot-modular-monolith-t'!$B$602</f>
+        <v>51.391666666666666</v>
+      </c>
+      <c r="I43" s="40">
         <v>0</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="41">
-        <f>'[44]6-springboot-microservice-dispu'!$B$22</f>
-        <v>219.15</v>
-      </c>
-      <c r="I43" s="26">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K43" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>85</v>
+      <c r="J43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="12">
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
       </c>
-      <c r="H44" s="41">
-        <f>'[45]6-springboot-microservice-manag'!$B$602</f>
-        <v>98.473333330000003</v>
+      <c r="H44" s="35">
+        <f>'[41]5-springboot-modular-monolith-t'!$B$1002</f>
+        <v>52.707999999999998</v>
       </c>
       <c r="I44" s="26">
         <v>0</v>
@@ -4296,31 +8268,31 @@
       <c r="L44" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="7" t="s">
-        <v>88</v>
+      <c r="M44" s="7">
+        <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+    <row r="45" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
       </c>
       <c r="H45" s="35">
-        <f>'[46]6-springboot-microservice-trans'!$B$1002</f>
-        <v>353.48700000000002</v>
+        <f>'[42]5-springboot-modular-monolith-t'!$B$2002</f>
+        <v>47.884</v>
       </c>
       <c r="I45" s="26">
         <v>0</v>
@@ -4331,512 +8303,1013 @@
       <c r="K45" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>79</v>
+      <c r="L45" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="5" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="59">
+        <v>1</v>
+      </c>
+      <c r="H46" s="52">
+        <f>'[43]5-springboot-modular-monolith-t'!$B$3002</f>
+        <v>47.319333329999999</v>
+      </c>
+      <c r="I46" s="53">
+        <v>0</v>
+      </c>
+      <c r="J46" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="59">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="59">
+        <v>1</v>
+      </c>
+      <c r="H47" s="52">
+        <f>'[44]5-springboot-modular-monolith-t'!$B$5002</f>
+        <v>72.634399999999999</v>
+      </c>
+      <c r="I47" s="53">
+        <v>0</v>
+      </c>
+      <c r="J47" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" s="59">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="51">
+        <v>1</v>
+      </c>
+      <c r="H48" s="52">
+        <f>'[45]5-springboot-modular-monolith-t'!$B$10002</f>
+        <v>3354.4063999999998</v>
+      </c>
+      <c r="I48" s="53">
+        <v>0</v>
+      </c>
+      <c r="J48" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="51">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A49" s="43">
+        <v>6</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="41">
+        <f>'[46]6-springboot-microservice-billi'!$B$102</f>
+        <v>87.72</v>
+      </c>
+      <c r="I49" s="26">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="41">
+        <f>'[47]6-springboot-microservice-dispu'!$B$22</f>
+        <v>219.15</v>
+      </c>
+      <c r="I50" s="26">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="41">
+        <f>'[48]6-springboot-microservice-manag'!$B$602</f>
+        <v>98.473333330000003</v>
+      </c>
+      <c r="I51" s="26">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E52" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1</v>
+      </c>
+      <c r="H52" s="35">
+        <f>'[75]6-springboot-microservice-trans'!$B$202</f>
+        <v>214.22</v>
+      </c>
+      <c r="I52" s="40">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="12">
+        <v>1</v>
+      </c>
+      <c r="H53" s="35">
+        <f>'[86]6-springboot-microservice-trans'!$B$202</f>
+        <v>214.91499999999999</v>
+      </c>
+      <c r="I53" s="40">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="12">
+        <v>1</v>
+      </c>
+      <c r="H54" s="35">
+        <f>'[85]6-springboot-microservice-trans'!$B$202</f>
+        <v>198.745</v>
+      </c>
+      <c r="I54" s="40">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="35">
+        <f>'[49]6-springboot-microservice-trans'!$B$1002</f>
+        <v>353.48700000000002</v>
+      </c>
+      <c r="I55" s="26">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F56" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G56" s="7">
         <v>1</v>
       </c>
-      <c r="H46" s="35">
-        <f>'[47]6-springboot-microservice-trans'!$B$2002</f>
+      <c r="H56" s="35">
+        <f>'[50]6-springboot-microservice-trans'!$B$2002</f>
         <v>3777.9575</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I56" s="40">
         <f>2/2000</f>
         <v>1E-3</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>82</v>
+      <c r="J56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" s="7">
+        <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="5" t="s">
+    <row r="57" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D57" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E57" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F57" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G57" s="59">
         <v>1</v>
       </c>
-      <c r="H47" s="35">
-        <f>'[48]6-springboot-microservice-trans'!$B$3002</f>
+      <c r="H57" s="52">
+        <f>'[51]6-springboot-microservice-trans'!$B$3002</f>
         <v>8178.557667</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I57" s="63">
         <f>1991/3000</f>
         <v>0.66366666666666663</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>83</v>
+      <c r="J57" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" s="59">
+        <v>1500</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="5" t="s">
+    <row r="58" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D58" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E58" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F58" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G58" s="59">
         <v>1</v>
       </c>
-      <c r="H48" s="35">
-        <f>'[49]6-springboot-microservice-trans'!$B$5002</f>
+      <c r="H58" s="52">
+        <f>'[52]6-springboot-microservice-trans'!$B$5002</f>
         <v>15382.041999999999</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I58" s="63">
         <f>4353/5000</f>
         <v>0.87060000000000004</v>
       </c>
-      <c r="J48" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" s="18" t="s">
-        <v>80</v>
+      <c r="J58" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" s="59">
+        <v>2500</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="5" t="s">
+    <row r="59" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D59" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E59" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F59" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G59" s="51">
         <v>1</v>
       </c>
-      <c r="H49" s="35">
-        <f>'[50]6-springboot-microservice-trans'!$B$10002</f>
+      <c r="H59" s="52">
+        <f>'[53]6-springboot-microservice-trans'!$B$10002</f>
         <v>38316.040399999998</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I59" s="53">
         <f>9578/10000</f>
         <v>0.95779999999999998</v>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K49" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" s="12" t="s">
+      <c r="J59" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" s="51">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A60" s="46">
+        <v>7</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="32">
+        <f>'[54]7-springboot-microservice-gatew'!$B$102</f>
+        <v>96.71</v>
+      </c>
+      <c r="I60" s="37">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="32">
+        <f>'[55]7-springboot-microservice-gatew'!$B$22</f>
+        <v>210.8</v>
+      </c>
+      <c r="I61" s="37">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="58" x14ac:dyDescent="0.3">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="17" t="s">
         <v>81</v>
       </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="32">
+        <f>'[56]7-springboot-microservice-gatew'!$B$602</f>
+        <v>98.911666670000002</v>
+      </c>
+      <c r="I62" s="37">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" s="7">
+        <v>200</v>
+      </c>
     </row>
-    <row r="50" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A50" s="48">
-        <v>7</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="17" t="s">
+    <row r="63" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G63" s="12">
         <v>1</v>
       </c>
-      <c r="H50" s="32">
-        <f>'[51]7-springboot-microservice-gatew'!$B$102</f>
-        <v>96.71</v>
-      </c>
-      <c r="I50" s="37">
+      <c r="H63" s="35">
+        <f>'[76]7-springboot-microservice-gatew'!$B$202</f>
+        <v>212.17</v>
+      </c>
+      <c r="I63" s="40">
         <v>0</v>
       </c>
-      <c r="J50" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K50" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L50" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M50" s="7" t="s">
+      <c r="J63" s="12">
+        <v>2</v>
+      </c>
+      <c r="K63" s="29">
+        <f>'[77]7-springboot-microservice-gatew'!$B$202</f>
+        <v>205.685</v>
+      </c>
+      <c r="L63" s="39">
+        <v>0</v>
+      </c>
+      <c r="M63" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>84</v>
       </c>
+      <c r="F64" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1</v>
+      </c>
+      <c r="H64" s="35">
+        <f>'[84]7-springboot-microservice-gatew'!$B$202</f>
+        <v>224.21</v>
+      </c>
+      <c r="I64" s="40">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" s="29">
+        <f>'[82]7-springboot-microservice-gatew'!$B$202</f>
+        <v>206.01499999999999</v>
+      </c>
+      <c r="L64" s="39">
+        <v>0</v>
+      </c>
+      <c r="M64" s="12">
+        <v>200</v>
+      </c>
     </row>
-    <row r="51" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" s="7">
+    <row r="65" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" s="12">
         <v>1</v>
       </c>
-      <c r="H51" s="32">
-        <f>'[52]7-springboot-microservice-gatew'!$B$22</f>
-        <v>210.8</v>
-      </c>
-      <c r="I51" s="37">
+      <c r="H65" s="35">
+        <f>'[83]7-springboot-microservice-gatew'!$B$202</f>
+        <v>204.41499999999999</v>
+      </c>
+      <c r="I65" s="40">
         <v>0</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L51" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>85</v>
+      <c r="J65" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" s="29">
+        <f>'[81]7-springboot-microservice-gatew'!$B$202</f>
+        <v>202.06</v>
+      </c>
+      <c r="L65" s="39">
+        <v>0</v>
+      </c>
+      <c r="M65" s="12">
+        <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A52" s="49"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="7">
+    <row r="66" spans="1:14" ht="58" x14ac:dyDescent="0.3">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="12">
         <v>1</v>
       </c>
-      <c r="H52" s="32">
-        <f>'[53]7-springboot-microservice-gatew'!$B$602</f>
-        <v>98.911666670000002</v>
-      </c>
-      <c r="I52" s="37">
+      <c r="H66" s="34">
+        <f>'[57]7-springboot-microservice-gatew'!$B$1002</f>
+        <v>342.90100000000001</v>
+      </c>
+      <c r="I66" s="26">
         <v>0</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K52" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L52" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>88</v>
+      <c r="J66" s="12">
+        <v>2</v>
+      </c>
+      <c r="K66" s="29">
+        <f>'[58]7-springboot-microservice-gatew'!$B$1002</f>
+        <v>256.37</v>
+      </c>
+      <c r="L66" s="26">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="23" t="s">
+    <row r="67" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="12">
+      <c r="E67" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="12">
         <v>1</v>
       </c>
-      <c r="H53" s="34">
-        <f>'[54]7-springboot-microservice-gatew'!$B$1002</f>
-        <v>342.90100000000001</v>
-      </c>
-      <c r="I53" s="26">
-        <v>0</v>
-      </c>
-      <c r="J53" s="12">
-        <v>2</v>
-      </c>
-      <c r="K53" s="29">
-        <f>'[55]7-springboot-microservice-gatew'!$B$1002</f>
-        <v>256.37</v>
-      </c>
-      <c r="L53" s="26">
-        <v>0</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" s="12">
-        <v>1</v>
-      </c>
-      <c r="H54" s="34">
-        <f>'[56]7-springboot-microservice-gatew'!$B$2002</f>
+      <c r="H67" s="34">
+        <f>'[59]7-springboot-microservice-gatew'!$B$2002</f>
         <v>3492.1334999999999</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I67" s="26">
         <f>1/2000</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J67" s="12">
         <v>2</v>
       </c>
-      <c r="K54" s="29">
-        <f>'[57]7-springboot-microservice-gatew'!$B$2002</f>
+      <c r="K67" s="29">
+        <f>'[60]7-springboot-microservice-gatew'!$B$2002</f>
         <v>3212.97</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L67" s="26">
         <f>1/2000</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="M54" s="12" t="s">
-        <v>82</v>
+      <c r="M67" s="7">
+        <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="49"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="11" t="s">
+    <row r="68" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E68" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F68" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G68" s="51">
         <v>1</v>
       </c>
-      <c r="H55" s="34">
-        <f>'[58]7-springboot-microservice-gatew'!$B$3002</f>
+      <c r="H68" s="52">
+        <f>'[61]7-springboot-microservice-gatew'!$B$3002</f>
         <v>7835.5426669999997</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I68" s="53">
         <f>1733/3000</f>
         <v>0.57766666666666666</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J68" s="51">
         <v>2</v>
       </c>
-      <c r="K55" s="29">
-        <f>'[59]7-springboot-microservice-gatew'!$B$3002</f>
+      <c r="K68" s="56">
+        <f>'[62]7-springboot-microservice-gatew'!$B$3002</f>
         <v>7646.0510000000004</v>
       </c>
-      <c r="L55" s="26">
+      <c r="L68" s="53">
         <f>1681/3000</f>
         <v>0.56033333333333335</v>
       </c>
-      <c r="M55" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="N55" s="14" t="s">
+      <c r="M68" s="59">
+        <v>1500</v>
+      </c>
+      <c r="N68" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="49"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="16" t="s">
+    <row r="69" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E69" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F69" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G69" s="59">
         <v>1</v>
       </c>
-      <c r="H56" s="33">
-        <f>'[60]7-springboot-microservice-gatew'!$B$5002</f>
+      <c r="H69" s="65">
+        <f>'[63]7-springboot-microservice-gatew'!$B$5002</f>
         <v>15258.687400000001</v>
       </c>
-      <c r="I56" s="36">
+      <c r="I69" s="66">
         <f>4353/5000</f>
         <v>0.87060000000000004</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J69" s="59">
         <v>2</v>
       </c>
-      <c r="K56" s="30">
-        <f>'[61]7-springboot-microservice-gatew'!$B$5002</f>
+      <c r="K69" s="65">
+        <f>'[64]7-springboot-microservice-gatew'!$B$5002</f>
         <v>9242.4761999999992</v>
       </c>
-      <c r="L56" s="36">
+      <c r="L69" s="66">
         <f>4333/5000</f>
         <v>0.86660000000000004</v>
       </c>
-      <c r="M56" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N56" s="13"/>
+      <c r="M69" s="59">
+        <v>2500</v>
+      </c>
+      <c r="N69" s="13"/>
     </row>
-    <row r="57" spans="1:14" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="49"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="11" t="s">
+    <row r="70" spans="1:14" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E70" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F70" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G70" s="51">
         <v>1</v>
       </c>
-      <c r="H57" s="35">
-        <f>'[62]7-springboot-microservice-gatew'!$B$10002</f>
+      <c r="H70" s="52">
+        <f>'[65]7-springboot-microservice-gatew'!$B$10002</f>
         <v>38215.710800000001</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I70" s="53">
         <f>9563/10000</f>
         <v>0.95630000000000004</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J70" s="51">
         <v>2</v>
       </c>
-      <c r="K57" s="31">
-        <f>'[63]7-springboot-microservice-gatew'!$B$10002</f>
+      <c r="K70" s="54">
+        <f>'[66]7-springboot-microservice-gatew'!$B$10002</f>
         <v>16777.6018</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L70" s="53">
         <f>9618/10000</f>
         <v>0.96179999999999999</v>
       </c>
-      <c r="M57" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N57" s="24"/>
+      <c r="M70" s="51">
+        <v>5000</v>
+      </c>
+      <c r="N70" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{6494EEAF-4EED-4EBB-957E-12F2535BD3AE}"/>
+  <autoFilter ref="A1:N70" xr:uid="{6494EEAF-4EED-4EBB-957E-12F2535BD3AE}"/>
   <mergeCells count="14">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B60:B70"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A48"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="B49:B59"/>
+    <mergeCell ref="A49:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4845,6 +9318,343 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116A34E-B1A1-41AF-AF09-F25F39A3677E}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7">
+        <v>500</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30">
+        <f>'[28]4-jersey-microservice-gateway-t'!$B$1002</f>
+        <v>118.33499999999999</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="27">
+        <f>'[29]4-jersey-microservice-gateway-t'!$B$1002</f>
+        <v>118.13200000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30">
+        <f>'[30]4-jersey-microservice-gateway-t'!$B$2002</f>
+        <v>296.32600000000002</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30">
+        <f>'[31]4-jersey-microservice-gateway-t'!$B$2002</f>
+        <v>286.07900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30">
+        <f>'[32]4-jersey-microservice-gateway-t'!$B$3002</f>
+        <v>1924.9263330000001</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="30">
+        <f>'[33]4-jersey-microservice-gateway-t'!$B$3002</f>
+        <v>1744.3236669999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30">
+        <f>'[34]4-jersey-microservice-gateway-t'!$B$5002</f>
+        <v>2074.3674000000001</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30">
+        <f>'[35]4-jersey-microservice-gateway-t'!$B$5002</f>
+        <v>2013.7991999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34">
+        <f>'[36]4-jersey-microservice-gateway-t'!$B$10002</f>
+        <v>2075.6810999999998</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="31">
+        <f>'[37]4-jersey-microservice-gateway-t'!$B$10002</f>
+        <v>2499.2819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="7">
+        <v>137.57</v>
+      </c>
+      <c r="C11" s="7">
+        <v>128.47999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>500</v>
+      </c>
+      <c r="B12" s="47">
+        <v>118.33499999999999</v>
+      </c>
+      <c r="C12" s="47">
+        <v>118.13200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="47">
+        <v>296.32600000000002</v>
+      </c>
+      <c r="C13" s="47">
+        <v>286.07900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>1500</v>
+      </c>
+      <c r="B14" s="47">
+        <v>1924.9263330000001</v>
+      </c>
+      <c r="C14" s="47">
+        <v>1744.3236669999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>2500</v>
+      </c>
+      <c r="B15" s="47">
+        <v>2074.3674000000001</v>
+      </c>
+      <c r="C15" s="47">
+        <v>2013.7991999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:G9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8633146-CFEC-4368-96A7-B59E00117447}">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.296875" customWidth="1"/>
+    <col min="2" max="2" width="27.8984375" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="7">
+        <v>212.17</v>
+      </c>
+      <c r="C3" s="7">
+        <v>205.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>200</v>
+      </c>
+      <c r="B4" s="7">
+        <v>224.21</v>
+      </c>
+      <c r="C4" s="7">
+        <v>206.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>300</v>
+      </c>
+      <c r="B5" s="7">
+        <v>204.42</v>
+      </c>
+      <c r="C5" s="7">
+        <v>202.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>500</v>
+      </c>
+      <c r="B6" s="47">
+        <v>342.90100000000001</v>
+      </c>
+      <c r="C6" s="47">
+        <v>256.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="47">
+        <v>3492.1334999999999</v>
+      </c>
+      <c r="C7" s="47">
+        <v>3212.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF54397-82CA-47E0-8821-53FFC0758531}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -4891,10 +9701,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -4904,36 +9714,36 @@
         <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G2" s="8">
-        <f>'[70]a-jersey-microservice-jdbc-bill'!$B$902</f>
+        <f>'[67]a-jersey-microservice-jdbc-bill'!$B$902</f>
         <v>34.848888888888887</v>
       </c>
       <c r="H2" s="10">
         <v>0</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G3" s="8">
         <f>215</f>
@@ -4947,8 +9757,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
@@ -4962,21 +9772,21 @@
         <v>37</v>
       </c>
       <c r="G4" s="8">
-        <f>'[71]a-jersey-microservice-jdbc-cusc'!$B$502</f>
+        <f>'[68]a-jersey-microservice-jdbc-cusc'!$B$502</f>
         <v>66.483999999999995</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+      <c r="A5" s="43">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -4986,39 +9796,39 @@
         <v>33</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G5" s="8">
-        <f>'[67]b-springboot-microservice-jpa-b'!$B$902</f>
+        <f>'[69]b-springboot-microservice-jpa-b'!$B$902</f>
         <v>28.174444439999998</v>
       </c>
       <c r="H5" s="10">
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="50">
-        <f>'[68]b-springboot-microservice-jpa-b'!$B$1002</f>
+        <v>93</v>
+      </c>
+      <c r="G6" s="42">
+        <f>'[70]b-springboot-microservice-jpa-b'!$B$1002</f>
         <v>234.75200000000001</v>
       </c>
       <c r="H6" s="10">
@@ -5029,10 +9839,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>35</v>
@@ -5044,14 +9854,14 @@
         <v>37</v>
       </c>
       <c r="G7" s="8">
-        <f>'[69]b-springboot-microservice-jpa-c'!$B$502</f>
+        <f>'[71]b-springboot-microservice-jpa-c'!$B$502</f>
         <v>64.343999999999994</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/jmeter/test-result/ExcelSummary/★Test-Summary.xlsx
+++ b/jmeter/test-result/ExcelSummary/★Test-Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\api-test-scripts\jmeter\test-result\ExcelSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1179DB64-F603-4D1F-AE78-1EAE1AD0ACCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1718F8-39AE-4CD6-BC57-E5215A91EE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="852" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="852" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總覽-交易服務" sheetId="21" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="107">
   <si>
     <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,34 +597,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加總</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計算加總</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance數量為1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance數量為2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Number of Threads(user)：150
 Ramp-up period(seconds)：60
 Loop Count：2
 Thread Delay(in milliseconds)：5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw-instance數量為1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw-instance數量為2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microservice-gateway-instance數量為1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microservice-gateway-instance數量為2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monolith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modular-monolith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microservice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +636,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -713,12 +716,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -785,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,9 +878,6 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,23 +911,8 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -976,6 +967,26 @@
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,20 +1046,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>jersey-microservice-gateway </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>trasactions </a:t>
+              <a:t>Jersey transactions </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW"/>
-              <a:t>模組的請求平均回覆時間</a:t>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>模組平均回應時間</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1085,20 +1087,237 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12677504200890566"/>
+          <c:y val="0.19944171757614981"/>
+          <c:w val="0.83954550824146024"/>
+          <c:h val="0.42131336719934814"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jersey-microservice-gateway'!$B$10</c:f>
+              <c:f>'jersey-microservice-gateway'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>instance數量為1</c:v>
+                  <c:v>monolith</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.219000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.276000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.337666669999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.184600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0DA9-4302-9C3A-5A87120A46B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>modular-monolith</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43.854999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.392000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.210599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0DA9-4302-9C3A-5A87120A46B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>microservice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>142.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>793.76350000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2903.1616666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1894.5781999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0DA9-4302-9C3A-5A87120A46B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>microservice-gateway-instance數量為1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1127,161 +1346,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.7823243099123697E-3"/>
-                  <c:y val="2.3284722655118422E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-C9A7-473E-9F7E-B005D5510B1B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.2340432057721615E-2"/>
-                  <c:y val="-5.2631907037119965E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-C9A7-473E-9F7E-B005D5510B1B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.4599026537020528E-2"/>
-                  <c:y val="-5.238402558019295E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-C9A7-473E-9F7E-B005D5510B1B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.11963994532623196"/>
-                  <c:y val="-6.1615122314041565E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-C9A7-473E-9F7E-B005D5510B1B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.4599026537020584E-2"/>
-                  <c:y val="-7.1094371900817188E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:noFill/>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'jersey-microservice-gateway'!$A$11:$A$15</c:f>
+              <c:f>'jersey-microservice-gateway'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1305,11 +1372,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jersey-microservice-gateway'!$B$11:$B$15</c:f>
+              <c:f>'jersey-microservice-gateway'!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>137.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1336,14 +1403,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jersey-microservice-gateway'!$C$10</c:f>
+              <c:f>'jersey-microservice-gateway'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>instance數量為2</c:v>
+                  <c:v>microservice-gateway-instance數量為2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1378,137 +1445,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.1211134818072166E-2"/>
-                  <c:y val="-5.1226389841260531E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-C9A7-473E-9F7E-B005D5510B1B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.7823243099123697E-3"/>
-                  <c:y val="1.4632339729603866E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.7823243099123697E-3"/>
-                  <c:y val="5.6875497520653795E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-C9A7-473E-9F7E-B005D5510B1B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1129297239649479E-2"/>
-                  <c:y val="5.6875497520653753E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:noFill/>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'jersey-microservice-gateway'!$A$11:$A$15</c:f>
+              <c:f>'jersey-microservice-gateway'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1532,11 +1471,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jersey-microservice-gateway'!$C$11:$C$15</c:f>
+              <c:f>'jersey-microservice-gateway'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>128.47999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1607,6 +1546,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49037979493486611"/>
+              <c:y val="0.69409114632621571"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1803,6 +1750,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.0174882411226804E-2"/>
+          <c:y val="0.8211445482544435"/>
+          <c:w val="0.96271176225249699"/>
+          <c:h val="0.17831575445780784"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1913,23 +1870,984 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>springboot-microservice-gateway</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>trasactions </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Jersey transactions </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US"/>
-              <a:t>模組的請求平均回覆時間</a:t>
+              <a:t>模組平均回應時間</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12677504200890566"/>
+          <c:y val="0.19944171757614981"/>
+          <c:w val="0.83954550824146024"/>
+          <c:h val="0.42131336719934814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>monolith</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.219000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.276000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.337666669999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.184600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1349-45BB-8182-6425930A8B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>modular-monolith</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43.854999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.392000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.210599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1349-45BB-8182-6425930A8B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>microservice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-1349-45BB-8182-6425930A8B5C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-1349-45BB-8182-6425930A8B5C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-1349-45BB-8182-6425930A8B5C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3667231958139221E-2"/>
+                  <c:y val="-7.6158950325774409E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="zh-TW" altLang="en-US"/>
+                      <a:t>錯誤率 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>38.70%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-1349-45BB-8182-6425930A8B5C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8098468332225548E-3"/>
+                  <c:y val="-1.5231790065154916E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-TW" altLang="en-US"/>
+                      <a:t>錯誤率 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>66.62%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-1349-45BB-8182-6425930A8B5C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>142.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>793.76350000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2903.1616666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1894.5781999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1349-45BB-8182-6425930A8B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>microservice-gateway-instance數量為1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>137.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.33499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296.32600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1924.9263330000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2074.3674000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1349-45BB-8182-6425930A8B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'jersey-microservice-gateway'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>microservice-gateway-instance數量為2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'jersey-microservice-gateway'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.13200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286.07900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1744.3236669999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013.7991999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1349-45BB-8182-6425930A8B5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1900989168"/>
+        <c:axId val="661189360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1900989168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>請求總次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49037979493486611"/>
+              <c:y val="0.69409114632621571"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
             <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661189360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661189360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>毫秒</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1900989168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6621389540862488E-2"/>
+          <c:y val="0.78306512789606397"/>
+          <c:w val="0.83404075479402384"/>
+          <c:h val="0.20650769235382133"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpringBoot transactions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>模組平均回應時間</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1969,15 +2887,153 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="7"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'springboot-microservice-gateway'!$B$2</c:f>
+              <c:f>'springboot-microservice-gateway'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>instance數量為1</c:v>
+                  <c:v>modular-monolith</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50.115000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.391666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.707999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7E6-4FE1-BAEC-5148879EBEF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'springboot-microservice-gateway'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>microservice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>214.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>214.91499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353.48700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3777.9575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E7E6-4FE1-BAEC-5148879EBEF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'springboot-microservice-gateway'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gw-instance數量為1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2006,73 +3062,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.8969835389020757E-2"/>
-                  <c:y val="-5.7307951268284592E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-CC48-44BF-A8A7-F11470412B19}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'springboot-microservice-gateway'!$A$3:$A$7</c:f>
+              <c:f>'springboot-microservice-gateway'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2096,9 +3088,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'springboot-microservice-gateway'!$B$3:$B$7</c:f>
+              <c:f>'springboot-microservice-gateway'!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>212.17</c:v>
@@ -2109,10 +3101,10 @@
                 <c:pt idx="2">
                   <c:v>204.42</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00_ ">
+                <c:pt idx="3">
                   <c:v>342.90100000000001</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00_ ">
+                <c:pt idx="4">
                   <c:v>3492.1334999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2127,14 +3119,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'springboot-microservice-gateway'!$C$2</c:f>
+              <c:f>'springboot-microservice-gateway'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>instance數量為2</c:v>
+                  <c:v>gw-instance數量為2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2169,161 +3161,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.631654887704408E-2"/>
-                  <c:y val="2.6732874258072262E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-CC48-44BF-A8A7-F11470412B19}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.4291125737561024E-3"/>
-                  <c:y val="2.5264912240144717E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-CC48-44BF-A8A7-F11470412B19}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1206378877730844E-2"/>
-                  <c:y val="2.526491224014463E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-CC48-44BF-A8A7-F11470412B19}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1206378877730844E-2"/>
-                  <c:y val="1.6090149628097024E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-CC48-44BF-A8A7-F11470412B19}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.587034496271684E-2"/>
-                  <c:y val="5.278920007628779E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-CC48-44BF-A8A7-F11470412B19}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'springboot-microservice-gateway'!$A$3:$A$7</c:f>
+              <c:f>'springboot-microservice-gateway'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2347,9 +3187,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'springboot-microservice-gateway'!$C$3:$C$7</c:f>
+              <c:f>'springboot-microservice-gateway'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>205.69</c:v>
@@ -2360,10 +3200,10 @@
                 <c:pt idx="2">
                   <c:v>202.06</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00_ ">
+                <c:pt idx="3">
                   <c:v>256.37</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00_ ">
+                <c:pt idx="4">
                   <c:v>3212.97</c:v>
                 </c:pt>
               </c:numCache>
@@ -2377,9 +3217,8 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2389,750 +3228,7 @@
         <c:smooth val="0"/>
         <c:axId val="1981147344"/>
         <c:axId val="1981148176"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="zh-TW"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="t"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$C$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>212.17</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>205.69</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-CC48-44BF-A8A7-F11470412B19}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="zh-TW"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="t"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$4:$C$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>224.21</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>206.02</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-CC48-44BF-A8A7-F11470412B19}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="zh-TW"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="t"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$5:$C$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>204.42</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>202.06</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-CC48-44BF-A8A7-F11470412B19}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="zh-TW"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="t"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$6:$C$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00_ </c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>342.90100000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>256.37</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000A-CC48-44BF-A8A7-F11470412B19}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="zh-TW"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="t"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$3:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'springboot-microservice-gateway'!$A$7:$C$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00_ </c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3492.1334999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3212.97</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000B-CC48-44BF-A8A7-F11470412B19}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1981147344"/>
@@ -3316,7 +3412,699 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981147344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                    <a:alpha val="99000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpringBoot transactions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>模組平均回應時間</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'springboot-microservice-gateway'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>modular-monolith</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50.115000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.391666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.707999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0C2-4AB6-A13C-B429BEB95351}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'springboot-microservice-gateway'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>microservice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>214.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>214.91499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353.48700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3777.9575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0C2-4AB6-A13C-B429BEB95351}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'springboot-microservice-gateway'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gw-instance數量為1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>212.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>224.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>342.90100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3492.1334999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C0C2-4AB6-A13C-B429BEB95351}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'springboot-microservice-gateway'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gw-instance數量為2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'springboot-microservice-gateway'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>205.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3212.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C0C2-4AB6-A13C-B429BEB95351}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1981147344"/>
+        <c:axId val="1981148176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1981147344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>請求總次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981148176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1981148176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>毫秒</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3517,6 +4305,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4523,20 +5391,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>368301</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>52295</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>233830</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180789</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828261</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38653</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4561,6 +6435,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828261</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>27608</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD99595-8D0E-4FFA-BDD3-D4EEB8E40CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4569,15 +6481,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>781706</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>118246</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>162696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>181740</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>102480</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>729594</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4597,6 +6509,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>729594</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21454</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A525DEA-5E85-478D-8D10-B96663F229CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4628,6 +6578,25 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="2-jersey-modular-monolith-billi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="102">
+          <cell r="B102">
+            <v>61.3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="2-jersey-modular-monolith-dispu"/>
     </sheetNames>
     <sheetDataSet>
@@ -4643,7 +6612,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4662,7 +6631,26 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="2-jersey-modular-monolith-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>43.854999999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4681,7 +6669,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4700,7 +6688,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4719,7 +6707,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4738,7 +6726,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4757,7 +6745,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4768,44 +6756,6 @@
         <row r="102">
           <cell r="B102">
             <v>127.16</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="3-jersey-microservice-dispute-2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="22">
-          <cell r="B22">
-            <v>277.3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="3-jersey-microservice-managemen"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="602">
-          <cell r="B602">
-            <v>86.263333333333335</v>
           </cell>
         </row>
       </sheetData>
@@ -4837,6 +6787,63 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="3-jersey-microservice-dispute-2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="22">
+          <cell r="B22">
+            <v>277.3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="3-jersey-microservice-managemen"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="602">
+          <cell r="B602">
+            <v>86.263333333333335</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="3-jersey-microservice-transacti"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>142.63</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="3-jersey-microservice-transacti"/>
     </sheetNames>
     <sheetDataSet>
@@ -4852,7 +6859,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4871,14 +6878,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="3-jersey-microservice-transacti"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="3002">
           <cell r="B3002">
             <v>2903.1616666666669</v>
@@ -4890,14 +6897,14 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="3-jersey-microservice-transacti"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="5002">
           <cell r="B5002">
             <v>1894.5781999999999</v>
@@ -4909,7 +6916,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4928,7 +6935,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4947,7 +6954,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4958,63 +6965,6 @@
         <row r="22">
           <cell r="B22">
             <v>193.75</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="4-jersey-microservice-gateway-m"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="602">
-          <cell r="B602">
-            <v>72.833333330000002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="4-jersey-microservice-gateway-t"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="1002">
-          <cell r="B1002">
-            <v>118.33499999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="4-jersey-microservice-gateway-t"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="1002">
-          <cell r="B1002">
-            <v>118.13200000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -5046,6 +6996,101 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="4-jersey-microservice-gateway-m"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="602">
+          <cell r="B602">
+            <v>72.833333330000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="4-jersey-microservice-gateway-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>137.57</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="4-jersey-microservice-gateway-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>128.47999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="4-jersey-microservice-gateway-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="1002">
+          <cell r="B1002">
+            <v>118.33499999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="4-jersey-microservice-gateway-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="1002">
+          <cell r="B1002">
+            <v>118.13200000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="4-jersey-microservice-gateway-t"/>
     </sheetNames>
     <sheetDataSet>
@@ -5061,7 +7106,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5080,7 +7125,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5099,7 +7144,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5118,7 +7163,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5137,7 +7182,26 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1-jersey-monolith-transactions-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>44.575000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5156,7 +7220,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5175,7 +7239,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5194,7 +7258,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5213,7 +7277,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5232,7 +7296,102 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="5-springboot-modular-monolith-m"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="602">
+          <cell r="B602">
+            <v>41.006666670000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="5-springboot-modular-monolith-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>50.115000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="5-springboot-modular-monolith-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="402">
+          <cell r="B402">
+            <v>48.795000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="5-springboot-modular-monolith-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="602">
+          <cell r="B602">
+            <v>51.391666666666666</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="5-springboot-modular-monolith-t"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1002">
+          <cell r="B1002">
+            <v>52.707999999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5251,45 +7410,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="5-springboot-modular-monolith-m"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="602">
-          <cell r="B602">
-            <v>41.006666670000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="5-springboot-modular-monolith-t"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1002">
-          <cell r="B1002">
-            <v>52.707999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink50.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5308,7 +7429,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5327,7 +7448,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5346,7 +7467,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5365,7 +7486,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5384,7 +7505,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5403,7 +7524,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5422,7 +7543,83 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6-springboot-microservice-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>214.22</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6-springboot-microservice-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>214.91499999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6-springboot-microservice-trans"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>198.745</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1-jersey-monolith-transactions-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="2002">
+          <cell r="B2002">
+            <v>44.276000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink60.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5441,26 +7638,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1-jersey-monolith-transactions-"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="2002">
-          <cell r="B2002">
-            <v>44.276000000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5479,7 +7657,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5498,7 +7676,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5517,7 +7695,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5536,7 +7714,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5555,7 +7733,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5574,7 +7752,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5593,7 +7771,140 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>212.17</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>205.685</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1-jersey-monolith-transactions-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="3002">
+          <cell r="B3002">
+            <v>39.337666669999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink70.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>224.21</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>206.01499999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>204.41499999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="7-springboot-microservice-gatew"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="202">
+          <cell r="B202">
+            <v>202.06</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5612,7 +7923,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5631,7 +7942,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5650,26 +7961,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1-jersey-monolith-transactions-"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="3002">
-          <cell r="B3002">
-            <v>39.337666669999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5688,7 +7980,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink78.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5707,7 +7999,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink79.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5726,7 +8018,26 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1-jersey-monolith-transactions-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="5002">
+          <cell r="B5002">
+            <v>42.184600000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink80.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5745,7 +8056,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink81.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5764,7 +8075,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink82.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5783,7 +8094,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink83.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5802,7 +8113,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink84.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5821,7 +8132,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink85.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5840,7 +8151,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink86.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5859,26 +8170,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1-jersey-monolith-transactions-"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="5002">
-          <cell r="B5002">
-            <v>42.184600000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink87.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5897,7 +8189,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink88.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5916,159 +8208,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1-jersey-monolith-transactions-"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>44.575000000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="2-jersey-modular-monolith-trans"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>43.854999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="5-springboot-modular-monolith-t"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>50.115000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="6-springboot-microservice-trans"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>214.22</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7-springboot-microservice-gatew"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>212.17</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7-springboot-microservice-gatew"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>205.685</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink78.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="3-jersey-microservice-transacti"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>142.63</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink79.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="4-jersey-microservice-gateway-t"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>137.57</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -6079,196 +8219,6 @@
         <row r="10002">
           <cell r="B10002">
             <v>203.24010000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink80.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="4-jersey-microservice-gateway-t"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>128.47999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink81.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7-springboot-microservice-gatew"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>202.06</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink82.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7-springboot-microservice-gatew"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>206.01499999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink83.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7-springboot-microservice-gatew"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>204.41499999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink84.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7-springboot-microservice-gatew"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>224.21</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink85.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="6-springboot-microservice-trans"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>198.745</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink86.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="6-springboot-microservice-trans"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="202">
-          <cell r="B202">
-            <v>214.91499999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink87.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="5-springboot-modular-monolith-t"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="602">
-          <cell r="B602">
-            <v>51.391666666666666</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink88.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="5-springboot-modular-monolith-t"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="402">
-          <cell r="B402">
-            <v>48.795000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="2-jersey-modular-monolith-billi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="102">
-          <cell r="B102">
-            <v>61.3</v>
           </cell>
         </row>
       </sheetData>
@@ -6542,9 +8492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6494EEAF-4EED-4EBB-957E-12F2535BD3AE}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M65" sqref="C64:M65"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6606,10 +8556,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A2" s="43">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="65" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -6627,11 +8577,11 @@
       <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="31">
         <f>'[1]1-jersey-monolith-billing-100in'!$B$102</f>
         <v>64.489999999999995</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -6640,7 +8590,7 @@
       <c r="K2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="7">
@@ -6648,8 +8598,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -6665,11 +8615,11 @@
       <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <f>'[2]1-jersey-monolith-dispute-20ins'!$B$22</f>
         <v>50.55</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -6678,7 +8628,7 @@
       <c r="K3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="7">
@@ -6686,8 +8636,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -6703,11 +8653,11 @@
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <f>'[3]1-jersey-monolith-management-20'!$B$602</f>
         <v>53.776666669999997</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -6716,7 +8666,7 @@
       <c r="K4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="7">
@@ -6724,8 +8674,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="23" t="s">
         <v>38</v>
       </c>
@@ -6741,11 +8691,11 @@
       <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="35">
-        <f>'[72]1-jersey-monolith-transactions-'!$B$202</f>
+      <c r="H5" s="34">
+        <f>'[4]1-jersey-monolith-transactions-'!$B$202</f>
         <v>44.575000000000003</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -6754,7 +8704,7 @@
       <c r="K5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="12">
@@ -6762,8 +8712,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
@@ -6779,11 +8729,11 @@
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="33">
-        <f>'[4]1-jersey-monolith-transactions-'!$B$1002</f>
+      <c r="H6" s="32">
+        <f>'[5]1-jersey-monolith-transactions-'!$B$1002</f>
         <v>51.219000000000001</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -6792,7 +8742,7 @@
       <c r="K6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="7">
@@ -6800,8 +8750,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
@@ -6817,11 +8767,11 @@
       <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="33">
-        <f>'[5]1-jersey-monolith-transactions-'!$B$2002</f>
+      <c r="H7" s="32">
+        <f>'[6]1-jersey-monolith-transactions-'!$B$2002</f>
         <v>44.276000000000003</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
@@ -6830,7 +8780,7 @@
       <c r="K7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="7">
@@ -6838,8 +8788,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
@@ -6855,11 +8805,11 @@
       <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="33">
-        <f>'[6]1-jersey-monolith-transactions-'!$B$3002</f>
+      <c r="H8" s="32">
+        <f>'[7]1-jersey-monolith-transactions-'!$B$3002</f>
         <v>39.337666669999997</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
@@ -6868,7 +8818,7 @@
       <c r="K8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="18">
@@ -6876,8 +8826,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
@@ -6893,11 +8843,11 @@
       <c r="G9" s="18">
         <v>1</v>
       </c>
-      <c r="H9" s="33">
-        <f>'[7]1-jersey-monolith-transactions-'!$B$5002</f>
+      <c r="H9" s="32">
+        <f>'[8]1-jersey-monolith-transactions-'!$B$5002</f>
         <v>42.184600000000003</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
@@ -6906,7 +8856,7 @@
       <c r="K9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M9" s="18">
@@ -6914,49 +8864,49 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="45">
         <v>1</v>
       </c>
-      <c r="H10" s="35">
-        <f>'[8]1-jersey-monolith-transactions-'!$B$10002</f>
+      <c r="H10" s="46">
+        <f>'[9]1-jersey-monolith-transactions-'!$B$10002</f>
         <v>203.24010000000001</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="47">
         <f>327/10000</f>
         <v>3.27E-2</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="12">
+      <c r="J10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="45">
         <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="65">
         <v>2</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="65" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -6974,11 +8924,11 @@
       <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="35">
-        <f>'[9]2-jersey-modular-monolith-billi'!$B$102</f>
+      <c r="H11" s="34">
+        <f>'[10]2-jersey-modular-monolith-billi'!$B$102</f>
         <v>61.3</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -6987,7 +8937,7 @@
       <c r="K11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="7">
@@ -6995,8 +8945,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
@@ -7012,11 +8962,11 @@
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="35">
-        <f>'[10]2-jersey-modular-monolith-dispu'!$B$22</f>
+      <c r="H12" s="34">
+        <f>'[11]2-jersey-modular-monolith-dispu'!$B$22</f>
         <v>50.95</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
@@ -7025,7 +8975,7 @@
       <c r="K12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="7">
@@ -7033,8 +8983,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
@@ -7050,11 +9000,11 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="35">
-        <f>'[11]2-jersey-modular-monolith-manag'!$B$602</f>
+      <c r="H13" s="34">
+        <f>'[12]2-jersey-modular-monolith-manag'!$B$602</f>
         <v>48.311666670000001</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
@@ -7063,7 +9013,7 @@
       <c r="K13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="7">
@@ -7071,8 +9021,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
@@ -7088,11 +9038,11 @@
       <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="35">
-        <f>'[73]2-jersey-modular-monolith-trans'!$B$202</f>
+      <c r="H14" s="34">
+        <f>'[13]2-jersey-modular-monolith-trans'!$B$202</f>
         <v>43.854999999999997</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <v>0</v>
       </c>
       <c r="J14" s="12" t="s">
@@ -7101,7 +9051,7 @@
       <c r="K14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="12">
@@ -7109,8 +9059,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
@@ -7126,11 +9076,11 @@
       <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="H15" s="35">
-        <f>'[12]2-jersey-modular-monolith-trans'!$B$1002</f>
+      <c r="H15" s="34">
+        <f>'[14]2-jersey-modular-monolith-trans'!$B$1002</f>
         <v>41.392000000000003</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
@@ -7139,7 +9089,7 @@
       <c r="K15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="7">
@@ -7147,8 +9097,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
@@ -7164,11 +9114,11 @@
       <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="H16" s="35">
-        <f>'[13]2-jersey-modular-monolith-trans'!$B$2002</f>
+      <c r="H16" s="34">
+        <f>'[15]2-jersey-modular-monolith-trans'!$B$2002</f>
         <v>38.018000000000001</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
@@ -7177,7 +9127,7 @@
       <c r="K16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="7">
@@ -7185,8 +9135,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
@@ -7202,11 +9152,11 @@
       <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="H17" s="35">
-        <f>'[14]2-jersey-modular-monolith-trans'!$B$3002</f>
+      <c r="H17" s="34">
+        <f>'[16]2-jersey-modular-monolith-trans'!$B$3002</f>
         <v>35.914999999999999</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
@@ -7215,7 +9165,7 @@
       <c r="K17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="18">
@@ -7223,8 +9173,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
@@ -7240,11 +9190,11 @@
       <c r="G18" s="18">
         <v>1</v>
       </c>
-      <c r="H18" s="35">
-        <f>'[15]2-jersey-modular-monolith-trans'!$B$5002</f>
+      <c r="H18" s="34">
+        <f>'[17]2-jersey-modular-monolith-trans'!$B$5002</f>
         <v>40.210599999999999</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="39">
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
@@ -7253,7 +9203,7 @@
       <c r="K18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="18">
@@ -7261,49 +9211,49 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="45">
         <v>1</v>
       </c>
-      <c r="H19" s="35">
-        <f>'[16]2-jersey-modular-monolith-trans'!$B$10002</f>
+      <c r="H19" s="46">
+        <f>'[18]2-jersey-modular-monolith-trans'!$B$10002</f>
         <v>405.17349999999999</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="47">
         <f>646/10000</f>
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="12">
+      <c r="J19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="45">
         <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+      <c r="A20" s="65">
         <v>3</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="65" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -7321,8 +9271,8 @@
       <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="35">
-        <f>'[17]3-jersey-microservice-billing-1'!$B$102</f>
+      <c r="H20" s="34">
+        <f>'[19]3-jersey-microservice-billing-1'!$B$102</f>
         <v>127.16</v>
       </c>
       <c r="I20" s="26">
@@ -7334,7 +9284,7 @@
       <c r="K20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="7">
@@ -7342,8 +9292,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
@@ -7359,8 +9309,8 @@
       <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="35">
-        <f>'[18]3-jersey-microservice-dispute-2'!$B$22</f>
+      <c r="H21" s="34">
+        <f>'[20]3-jersey-microservice-dispute-2'!$B$22</f>
         <v>277.3</v>
       </c>
       <c r="I21" s="26">
@@ -7372,7 +9322,7 @@
       <c r="K21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M21" s="7">
@@ -7380,8 +9330,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
@@ -7397,8 +9347,8 @@
       <c r="G22" s="7">
         <v>1</v>
       </c>
-      <c r="H22" s="35">
-        <f>'[19]3-jersey-microservice-managemen'!$B$602</f>
+      <c r="H22" s="34">
+        <f>'[21]3-jersey-microservice-managemen'!$B$602</f>
         <v>86.263333333333335</v>
       </c>
       <c r="I22" s="26">
@@ -7410,7 +9360,7 @@
       <c r="K22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M22" s="7">
@@ -7418,8 +9368,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="23" t="s">
         <v>89</v>
       </c>
@@ -7435,11 +9385,11 @@
       <c r="G23" s="12">
         <v>1</v>
       </c>
-      <c r="H23" s="35">
-        <f>'[78]3-jersey-microservice-transacti'!$B$202</f>
+      <c r="H23" s="34">
+        <f>'[22]3-jersey-microservice-transacti'!$B$202</f>
         <v>142.63</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <v>0</v>
       </c>
       <c r="J23" s="12" t="s">
@@ -7448,7 +9398,7 @@
       <c r="K23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="12">
@@ -7456,8 +9406,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="5" t="s">
         <v>89</v>
       </c>
@@ -7473,8 +9423,8 @@
       <c r="G24" s="7">
         <v>1</v>
       </c>
-      <c r="H24" s="35">
-        <f>'[20]3-jersey-microservice-transacti'!$B$1002</f>
+      <c r="H24" s="34">
+        <f>'[23]3-jersey-microservice-transacti'!$B$1002</f>
         <v>137.572</v>
       </c>
       <c r="I24" s="26">
@@ -7486,7 +9436,7 @@
       <c r="K24" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M24" s="7">
@@ -7494,8 +9444,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="5" t="s">
         <v>89</v>
       </c>
@@ -7511,8 +9461,8 @@
       <c r="G25" s="7">
         <v>1</v>
       </c>
-      <c r="H25" s="35">
-        <f>'[21]3-jersey-microservice-transacti'!$B$2002</f>
+      <c r="H25" s="34">
+        <f>'[24]3-jersey-microservice-transacti'!$B$2002</f>
         <v>793.76350000000002</v>
       </c>
       <c r="I25" s="26">
@@ -7524,7 +9474,7 @@
       <c r="K25" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M25" s="7">
@@ -7532,8 +9482,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="5" t="s">
         <v>89</v>
       </c>
@@ -7549,11 +9499,11 @@
       <c r="G26" s="18">
         <v>1</v>
       </c>
-      <c r="H26" s="35">
-        <f>'[22]3-jersey-microservice-transacti'!$B$3002</f>
+      <c r="H26" s="63">
+        <f>'[25]3-jersey-microservice-transacti'!$B$3002</f>
         <v>2903.1616666666669</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="64">
         <f>1161/3000</f>
         <v>0.38700000000000001</v>
       </c>
@@ -7563,7 +9513,7 @@
       <c r="K26" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M26" s="18">
@@ -7571,8 +9521,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="5" t="s">
         <v>89</v>
       </c>
@@ -7588,11 +9538,11 @@
       <c r="G27" s="18">
         <v>1</v>
       </c>
-      <c r="H27" s="35">
-        <f>'[23]3-jersey-microservice-transacti'!$B$5002</f>
+      <c r="H27" s="63">
+        <f>'[26]3-jersey-microservice-transacti'!$B$5002</f>
         <v>1894.5781999999999</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="64">
         <f>3331/5000</f>
         <v>0.66620000000000001</v>
       </c>
@@ -7602,7 +9552,7 @@
       <c r="K27" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M27" s="18">
@@ -7610,49 +9560,49 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="45">
         <v>1</v>
       </c>
-      <c r="H28" s="35">
-        <f>'[24]3-jersey-microservice-transacti'!$B$10002</f>
+      <c r="H28" s="46">
+        <f>'[27]3-jersey-microservice-transacti'!$B$10002</f>
         <v>2005.6575</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="47">
         <f>8717/10000</f>
         <v>0.87170000000000003</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="12">
+      <c r="J28" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="45">
         <v>5000</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A29" s="43">
+      <c r="A29" s="65">
         <v>4</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="65" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -7670,11 +9620,11 @@
       <c r="G29" s="7">
         <v>1</v>
       </c>
-      <c r="H29" s="33">
-        <f>'[25]4-jersey-microservice-gateway-b'!$B$102</f>
+      <c r="H29" s="32">
+        <f>'[28]4-jersey-microservice-gateway-b'!$B$102</f>
         <v>80.97</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="36">
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
@@ -7683,7 +9633,7 @@
       <c r="K29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="38" t="s">
+      <c r="L29" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="7">
@@ -7691,8 +9641,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="5" t="s">
         <v>7</v>
       </c>
@@ -7708,11 +9658,11 @@
       <c r="G30" s="7">
         <v>1</v>
       </c>
-      <c r="H30" s="33">
-        <f>'[26]4-jersey-microservice-gateway-d'!$B$22</f>
+      <c r="H30" s="32">
+        <f>'[29]4-jersey-microservice-gateway-d'!$B$22</f>
         <v>193.75</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
@@ -7721,7 +9671,7 @@
       <c r="K30" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="7">
@@ -7729,8 +9679,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="5" t="s">
         <v>8</v>
       </c>
@@ -7746,11 +9696,11 @@
       <c r="G31" s="7">
         <v>1</v>
       </c>
-      <c r="H31" s="33">
-        <f>'[27]4-jersey-microservice-gateway-m'!$B$602</f>
+      <c r="H31" s="32">
+        <f>'[30]4-jersey-microservice-gateway-m'!$B$602</f>
         <v>72.833333330000002</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
@@ -7759,7 +9709,7 @@
       <c r="K31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M31" s="7">
@@ -7767,8 +9717,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="23" t="s">
         <v>9</v>
       </c>
@@ -7784,21 +9734,21 @@
       <c r="G32" s="12">
         <v>1</v>
       </c>
-      <c r="H32" s="35">
-        <f>'[79]4-jersey-microservice-gateway-t'!$B$202</f>
+      <c r="H32" s="34">
+        <f>'[31]4-jersey-microservice-gateway-t'!$B$202</f>
         <v>137.57</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="39">
         <v>0</v>
       </c>
       <c r="J32" s="12">
         <v>2</v>
       </c>
       <c r="K32" s="29">
-        <f>'[80]4-jersey-microservice-gateway-t'!$B$202</f>
+        <f>'[32]4-jersey-microservice-gateway-t'!$B$202</f>
         <v>128.47999999999999</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="38">
         <v>0</v>
       </c>
       <c r="M32" s="12">
@@ -7806,8 +9756,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="5" t="s">
         <v>9</v>
       </c>
@@ -7823,21 +9773,21 @@
       <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="H33" s="33">
-        <f>'[28]4-jersey-microservice-gateway-t'!$B$1002</f>
+      <c r="H33" s="32">
+        <f>'[33]4-jersey-microservice-gateway-t'!$B$1002</f>
         <v>118.33499999999999</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="36">
         <v>0</v>
       </c>
       <c r="J33" s="7">
         <v>2</v>
       </c>
       <c r="K33" s="27">
-        <f>'[29]4-jersey-microservice-gateway-t'!$B$1002</f>
+        <f>'[34]4-jersey-microservice-gateway-t'!$B$1002</f>
         <v>118.13200000000001</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="36">
         <v>0</v>
       </c>
       <c r="M33" s="7">
@@ -7845,8 +9795,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
@@ -7862,21 +9812,21 @@
       <c r="G34" s="7">
         <v>1</v>
       </c>
-      <c r="H34" s="33">
-        <f>'[30]4-jersey-microservice-gateway-t'!$B$2002</f>
+      <c r="H34" s="32">
+        <f>'[35]4-jersey-microservice-gateway-t'!$B$2002</f>
         <v>296.32600000000002</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <v>0</v>
       </c>
       <c r="J34" s="7">
         <v>2</v>
       </c>
       <c r="K34" s="30">
-        <f>'[31]4-jersey-microservice-gateway-t'!$B$2002</f>
+        <f>'[36]4-jersey-microservice-gateway-t'!$B$2002</f>
         <v>286.07900000000001</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="36">
         <v>0</v>
       </c>
       <c r="M34" s="7">
@@ -7884,8 +9834,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="15" t="s">
         <v>9</v>
       </c>
@@ -7901,21 +9851,21 @@
       <c r="G35" s="18">
         <v>1</v>
       </c>
-      <c r="H35" s="33">
-        <f>'[32]4-jersey-microservice-gateway-t'!$B$3002</f>
+      <c r="H35" s="32">
+        <f>'[37]4-jersey-microservice-gateway-t'!$B$3002</f>
         <v>1924.9263330000001</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="35">
         <v>0</v>
       </c>
       <c r="J35" s="18">
         <v>2</v>
       </c>
       <c r="K35" s="30">
-        <f>'[33]4-jersey-microservice-gateway-t'!$B$3002</f>
+        <f>'[38]4-jersey-microservice-gateway-t'!$B$3002</f>
         <v>1744.3236669999999</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="35">
         <v>0</v>
       </c>
       <c r="M35" s="18">
@@ -7924,8 +9874,8 @@
       <c r="N35" s="20"/>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="15" t="s">
         <v>9</v>
       </c>
@@ -7941,21 +9891,21 @@
       <c r="G36" s="18">
         <v>1</v>
       </c>
-      <c r="H36" s="33">
-        <f>'[34]4-jersey-microservice-gateway-t'!$B$5002</f>
+      <c r="H36" s="32">
+        <f>'[39]4-jersey-microservice-gateway-t'!$B$5002</f>
         <v>2074.3674000000001</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="35">
         <v>0</v>
       </c>
       <c r="J36" s="18">
         <v>2</v>
       </c>
       <c r="K36" s="30">
-        <f>'[35]4-jersey-microservice-gateway-t'!$B$5002</f>
+        <f>'[40]4-jersey-microservice-gateway-t'!$B$5002</f>
         <v>2013.7991999999999</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="35">
         <v>0</v>
       </c>
       <c r="M36" s="18">
@@ -7963,50 +9913,50 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="49" t="s">
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="45">
         <v>1</v>
       </c>
-      <c r="H37" s="52">
-        <f>'[36]4-jersey-microservice-gateway-t'!$B$10002</f>
+      <c r="H37" s="46">
+        <f>'[41]4-jersey-microservice-gateway-t'!$B$10002</f>
         <v>2075.6810999999998</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="47">
         <v>0</v>
       </c>
-      <c r="J37" s="51">
+      <c r="J37" s="45">
         <v>2</v>
       </c>
-      <c r="K37" s="54">
-        <f>'[37]4-jersey-microservice-gateway-t'!$B$10002</f>
+      <c r="K37" s="48">
+        <f>'[42]4-jersey-microservice-gateway-t'!$B$10002</f>
         <v>2499.2819</v>
       </c>
-      <c r="L37" s="53">
+      <c r="L37" s="47">
         <v>0</v>
       </c>
-      <c r="M37" s="51">
+      <c r="M37" s="45">
         <v>5000</v>
       </c>
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A38" s="43">
+      <c r="A38" s="65">
         <v>5</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="65" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -8024,8 +9974,8 @@
       <c r="G38" s="7">
         <v>1</v>
       </c>
-      <c r="H38" s="34">
-        <f>'[38]5-springboot-modular-monolith-b'!$B$102</f>
+      <c r="H38" s="33">
+        <f>'[43]5-springboot-modular-monolith-b'!$B$102</f>
         <v>41.31</v>
       </c>
       <c r="I38" s="26">
@@ -8037,7 +9987,7 @@
       <c r="K38" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="L38" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M38" s="7">
@@ -8045,8 +9995,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="5" t="s">
         <v>10</v>
       </c>
@@ -8062,8 +10012,8 @@
       <c r="G39" s="7">
         <v>1</v>
       </c>
-      <c r="H39" s="34">
-        <f>'[39]5-springboot-modular-monolith-d'!$B$22</f>
+      <c r="H39" s="33">
+        <f>'[44]5-springboot-modular-monolith-d'!$B$22</f>
         <v>42.4</v>
       </c>
       <c r="I39" s="26">
@@ -8075,7 +10025,7 @@
       <c r="K39" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="L39" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M39" s="7">
@@ -8083,8 +10033,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="5" t="s">
         <v>11</v>
       </c>
@@ -8100,8 +10050,8 @@
       <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="H40" s="34">
-        <f>'[40]5-springboot-modular-monolith-m'!$B$602</f>
+      <c r="H40" s="33">
+        <f>'[45]5-springboot-modular-monolith-m'!$B$602</f>
         <v>41.006666670000001</v>
       </c>
       <c r="I40" s="26">
@@ -8113,7 +10063,7 @@
       <c r="K40" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L40" s="37" t="s">
+      <c r="L40" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M40" s="7">
@@ -8121,8 +10071,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="23" t="s">
         <v>12</v>
       </c>
@@ -8138,11 +10088,11 @@
       <c r="G41" s="12">
         <v>1</v>
       </c>
-      <c r="H41" s="35">
-        <f>'[74]5-springboot-modular-monolith-t'!$B$202</f>
+      <c r="H41" s="34">
+        <f>'[46]5-springboot-modular-monolith-t'!$B$202</f>
         <v>50.115000000000002</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="39">
         <v>0</v>
       </c>
       <c r="J41" s="12" t="s">
@@ -8151,7 +10101,7 @@
       <c r="K41" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M41" s="12">
@@ -8159,8 +10109,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="23" t="s">
         <v>12</v>
       </c>
@@ -8176,11 +10126,11 @@
       <c r="G42" s="12">
         <v>1</v>
       </c>
-      <c r="H42" s="35">
-        <f>'[88]5-springboot-modular-monolith-t'!$B$402</f>
+      <c r="H42" s="34">
+        <f>'[47]5-springboot-modular-monolith-t'!$B$402</f>
         <v>48.795000000000002</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="39">
         <v>0</v>
       </c>
       <c r="J42" s="12" t="s">
@@ -8189,7 +10139,7 @@
       <c r="K42" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L42" s="39" t="s">
+      <c r="L42" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M42" s="12">
@@ -8197,8 +10147,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="23" t="s">
         <v>12</v>
       </c>
@@ -8209,16 +10159,16 @@
         <v>84</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G43" s="12">
         <v>1</v>
       </c>
-      <c r="H43" s="35">
-        <f>'[87]5-springboot-modular-monolith-t'!$B$602</f>
+      <c r="H43" s="34">
+        <f>'[48]5-springboot-modular-monolith-t'!$B$602</f>
         <v>51.391666666666666</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="39">
         <v>0</v>
       </c>
       <c r="J43" s="12" t="s">
@@ -8227,7 +10177,7 @@
       <c r="K43" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="L43" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M43" s="12">
@@ -8235,8 +10185,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="5" t="s">
         <v>12</v>
       </c>
@@ -8252,8 +10202,8 @@
       <c r="G44" s="7">
         <v>1</v>
       </c>
-      <c r="H44" s="35">
-        <f>'[41]5-springboot-modular-monolith-t'!$B$1002</f>
+      <c r="H44" s="34">
+        <f>'[49]5-springboot-modular-monolith-t'!$B$1002</f>
         <v>52.707999999999998</v>
       </c>
       <c r="I44" s="26">
@@ -8265,7 +10215,7 @@
       <c r="K44" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L44" s="37" t="s">
+      <c r="L44" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M44" s="7">
@@ -8273,8 +10223,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="5" t="s">
         <v>12</v>
       </c>
@@ -8290,8 +10240,8 @@
       <c r="G45" s="7">
         <v>1</v>
       </c>
-      <c r="H45" s="35">
-        <f>'[42]5-springboot-modular-monolith-t'!$B$2002</f>
+      <c r="H45" s="34">
+        <f>'[50]5-springboot-modular-monolith-t'!$B$2002</f>
         <v>47.884</v>
       </c>
       <c r="I45" s="26">
@@ -8303,7 +10253,7 @@
       <c r="K45" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="38" t="s">
+      <c r="L45" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M45" s="7">
@@ -8311,124 +10261,124 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="55" t="s">
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="58" t="s">
+      <c r="E46" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="59">
+      <c r="G46" s="53">
         <v>1</v>
       </c>
-      <c r="H46" s="52">
-        <f>'[43]5-springboot-modular-monolith-t'!$B$3002</f>
+      <c r="H46" s="46">
+        <f>'[51]5-springboot-modular-monolith-t'!$B$3002</f>
         <v>47.319333329999999</v>
       </c>
-      <c r="I46" s="53">
+      <c r="I46" s="47">
         <v>0</v>
       </c>
-      <c r="J46" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="M46" s="59">
+      <c r="J46" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="53">
         <v>1500</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="55" t="s">
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E47" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="59">
+      <c r="G47" s="53">
         <v>1</v>
       </c>
-      <c r="H47" s="52">
-        <f>'[44]5-springboot-modular-monolith-t'!$B$5002</f>
+      <c r="H47" s="46">
+        <f>'[52]5-springboot-modular-monolith-t'!$B$5002</f>
         <v>72.634399999999999</v>
       </c>
-      <c r="I47" s="53">
+      <c r="I47" s="47">
         <v>0</v>
       </c>
-      <c r="J47" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" s="59">
+      <c r="J47" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" s="53">
         <v>2500</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="55" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="45">
         <v>1</v>
       </c>
-      <c r="H48" s="52">
-        <f>'[45]5-springboot-modular-monolith-t'!$B$10002</f>
+      <c r="H48" s="46">
+        <f>'[53]5-springboot-modular-monolith-t'!$B$10002</f>
         <v>3354.4063999999998</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I48" s="47">
         <v>0</v>
       </c>
-      <c r="J48" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" s="51">
+      <c r="J48" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="45">
         <v>5000</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A49" s="43">
+      <c r="A49" s="65">
         <v>6</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="65" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -8446,8 +10396,8 @@
       <c r="G49" s="7">
         <v>1</v>
       </c>
-      <c r="H49" s="41">
-        <f>'[46]6-springboot-microservice-billi'!$B$102</f>
+      <c r="H49" s="40">
+        <f>'[54]6-springboot-microservice-billi'!$B$102</f>
         <v>87.72</v>
       </c>
       <c r="I49" s="26">
@@ -8459,7 +10409,7 @@
       <c r="K49" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L49" s="37" t="s">
+      <c r="L49" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="7">
@@ -8467,8 +10417,8 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="5" t="s">
         <v>13</v>
       </c>
@@ -8484,8 +10434,8 @@
       <c r="G50" s="7">
         <v>1</v>
       </c>
-      <c r="H50" s="41">
-        <f>'[47]6-springboot-microservice-dispu'!$B$22</f>
+      <c r="H50" s="40">
+        <f>'[55]6-springboot-microservice-dispu'!$B$22</f>
         <v>219.15</v>
       </c>
       <c r="I50" s="26">
@@ -8497,7 +10447,7 @@
       <c r="K50" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L50" s="37" t="s">
+      <c r="L50" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M50" s="7">
@@ -8505,8 +10455,8 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="5" t="s">
         <v>14</v>
       </c>
@@ -8522,8 +10472,8 @@
       <c r="G51" s="7">
         <v>1</v>
       </c>
-      <c r="H51" s="41">
-        <f>'[48]6-springboot-microservice-manag'!$B$602</f>
+      <c r="H51" s="40">
+        <f>'[56]6-springboot-microservice-manag'!$B$602</f>
         <v>98.473333330000003</v>
       </c>
       <c r="I51" s="26">
@@ -8535,7 +10485,7 @@
       <c r="K51" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L51" s="37" t="s">
+      <c r="L51" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M51" s="7">
@@ -8543,8 +10493,8 @@
       </c>
     </row>
     <row r="52" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="23" t="s">
         <v>15</v>
       </c>
@@ -8560,11 +10510,11 @@
       <c r="G52" s="12">
         <v>1</v>
       </c>
-      <c r="H52" s="35">
-        <f>'[75]6-springboot-microservice-trans'!$B$202</f>
+      <c r="H52" s="34">
+        <f>'[57]6-springboot-microservice-trans'!$B$202</f>
         <v>214.22</v>
       </c>
-      <c r="I52" s="40">
+      <c r="I52" s="39">
         <v>0</v>
       </c>
       <c r="J52" s="12" t="s">
@@ -8573,7 +10523,7 @@
       <c r="K52" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L52" s="39" t="s">
+      <c r="L52" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M52" s="12">
@@ -8581,8 +10531,8 @@
       </c>
     </row>
     <row r="53" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="23" t="s">
         <v>15</v>
       </c>
@@ -8598,11 +10548,11 @@
       <c r="G53" s="12">
         <v>1</v>
       </c>
-      <c r="H53" s="35">
-        <f>'[86]6-springboot-microservice-trans'!$B$202</f>
+      <c r="H53" s="34">
+        <f>'[58]6-springboot-microservice-trans'!$B$202</f>
         <v>214.91499999999999</v>
       </c>
-      <c r="I53" s="40">
+      <c r="I53" s="39">
         <v>0</v>
       </c>
       <c r="J53" s="12" t="s">
@@ -8611,7 +10561,7 @@
       <c r="K53" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L53" s="39" t="s">
+      <c r="L53" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M53" s="12">
@@ -8619,8 +10569,8 @@
       </c>
     </row>
     <row r="54" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="23" t="s">
         <v>15</v>
       </c>
@@ -8631,16 +10581,16 @@
         <v>84</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G54" s="12">
         <v>1</v>
       </c>
-      <c r="H54" s="35">
-        <f>'[85]6-springboot-microservice-trans'!$B$202</f>
+      <c r="H54" s="34">
+        <f>'[59]6-springboot-microservice-trans'!$B$202</f>
         <v>198.745</v>
       </c>
-      <c r="I54" s="40">
+      <c r="I54" s="39">
         <v>0</v>
       </c>
       <c r="J54" s="12" t="s">
@@ -8649,7 +10599,7 @@
       <c r="K54" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L54" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M54" s="12">
@@ -8657,8 +10607,8 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="5" t="s">
         <v>15</v>
       </c>
@@ -8674,8 +10624,8 @@
       <c r="G55" s="7">
         <v>1</v>
       </c>
-      <c r="H55" s="35">
-        <f>'[49]6-springboot-microservice-trans'!$B$1002</f>
+      <c r="H55" s="34">
+        <f>'[60]6-springboot-microservice-trans'!$B$1002</f>
         <v>353.48700000000002</v>
       </c>
       <c r="I55" s="26">
@@ -8687,7 +10637,7 @@
       <c r="K55" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L55" s="37" t="s">
+      <c r="L55" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M55" s="7">
@@ -8695,8 +10645,8 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="5" t="s">
         <v>15</v>
       </c>
@@ -8712,11 +10662,11 @@
       <c r="G56" s="7">
         <v>1</v>
       </c>
-      <c r="H56" s="35">
-        <f>'[50]6-springboot-microservice-trans'!$B$2002</f>
+      <c r="H56" s="34">
+        <f>'[61]6-springboot-microservice-trans'!$B$2002</f>
         <v>3777.9575</v>
       </c>
-      <c r="I56" s="40">
+      <c r="I56" s="39">
         <f>2/2000</f>
         <v>1E-3</v>
       </c>
@@ -8726,7 +10676,7 @@
       <c r="K56" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L56" s="38" t="s">
+      <c r="L56" s="37" t="s">
         <v>26</v>
       </c>
       <c r="M56" s="7">
@@ -8734,127 +10684,127 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="55" t="s">
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="58" t="s">
+      <c r="E57" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="58" t="s">
+      <c r="F57" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="59">
+      <c r="G57" s="53">
         <v>1</v>
       </c>
-      <c r="H57" s="52">
-        <f>'[51]6-springboot-microservice-trans'!$B$3002</f>
+      <c r="H57" s="46">
+        <f>'[62]6-springboot-microservice-trans'!$B$3002</f>
         <v>8178.557667</v>
       </c>
-      <c r="I57" s="63">
+      <c r="I57" s="57">
         <f>1991/3000</f>
         <v>0.66366666666666663</v>
       </c>
-      <c r="J57" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="K57" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="M57" s="59">
+      <c r="J57" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" s="53">
         <v>1500</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="55" t="s">
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="58" t="s">
+      <c r="E58" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="58" t="s">
+      <c r="F58" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="59">
+      <c r="G58" s="53">
         <v>1</v>
       </c>
-      <c r="H58" s="52">
-        <f>'[52]6-springboot-microservice-trans'!$B$5002</f>
+      <c r="H58" s="46">
+        <f>'[63]6-springboot-microservice-trans'!$B$5002</f>
         <v>15382.041999999999</v>
       </c>
-      <c r="I58" s="63">
+      <c r="I58" s="57">
         <f>4353/5000</f>
         <v>0.87060000000000004</v>
       </c>
-      <c r="J58" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="L58" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="M58" s="59">
+      <c r="J58" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" s="53">
         <v>2500</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="55" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F59" s="50" t="s">
+      <c r="F59" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="45">
         <v>1</v>
       </c>
-      <c r="H59" s="52">
-        <f>'[53]6-springboot-microservice-trans'!$B$10002</f>
+      <c r="H59" s="46">
+        <f>'[64]6-springboot-microservice-trans'!$B$10002</f>
         <v>38316.040399999998</v>
       </c>
-      <c r="I59" s="53">
+      <c r="I59" s="47">
         <f>9578/10000</f>
         <v>0.95779999999999998</v>
       </c>
-      <c r="J59" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K59" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="L59" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="M59" s="51">
+      <c r="J59" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" s="45">
         <v>5000</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A60" s="46">
+      <c r="A60" s="68">
         <v>7</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="68" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -8872,11 +10822,11 @@
       <c r="G60" s="7">
         <v>1</v>
       </c>
-      <c r="H60" s="32">
-        <f>'[54]7-springboot-microservice-gatew'!$B$102</f>
+      <c r="H60" s="31">
+        <f>'[65]7-springboot-microservice-gatew'!$B$102</f>
         <v>96.71</v>
       </c>
-      <c r="I60" s="37">
+      <c r="I60" s="36">
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
@@ -8885,7 +10835,7 @@
       <c r="K60" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L60" s="37" t="s">
+      <c r="L60" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M60" s="7">
@@ -8893,8 +10843,8 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="5" t="s">
         <v>86</v>
       </c>
@@ -8910,11 +10860,11 @@
       <c r="G61" s="7">
         <v>1</v>
       </c>
-      <c r="H61" s="32">
-        <f>'[55]7-springboot-microservice-gatew'!$B$22</f>
+      <c r="H61" s="31">
+        <f>'[66]7-springboot-microservice-gatew'!$B$22</f>
         <v>210.8</v>
       </c>
-      <c r="I61" s="37">
+      <c r="I61" s="36">
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
@@ -8923,7 +10873,7 @@
       <c r="K61" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L61" s="37" t="s">
+      <c r="L61" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M61" s="7">
@@ -8931,8 +10881,8 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="58" x14ac:dyDescent="0.3">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="5" t="s">
         <v>16</v>
       </c>
@@ -8948,11 +10898,11 @@
       <c r="G62" s="7">
         <v>1</v>
       </c>
-      <c r="H62" s="32">
-        <f>'[56]7-springboot-microservice-gatew'!$B$602</f>
+      <c r="H62" s="31">
+        <f>'[67]7-springboot-microservice-gatew'!$B$602</f>
         <v>98.911666670000002</v>
       </c>
-      <c r="I62" s="37">
+      <c r="I62" s="36">
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
@@ -8961,7 +10911,7 @@
       <c r="K62" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L62" s="37" t="s">
+      <c r="L62" s="36" t="s">
         <v>26</v>
       </c>
       <c r="M62" s="7">
@@ -8969,8 +10919,8 @@
       </c>
     </row>
     <row r="63" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
       <c r="C63" s="23" t="s">
         <v>17</v>
       </c>
@@ -8986,21 +10936,21 @@
       <c r="G63" s="12">
         <v>1</v>
       </c>
-      <c r="H63" s="35">
-        <f>'[76]7-springboot-microservice-gatew'!$B$202</f>
+      <c r="H63" s="34">
+        <f>'[68]7-springboot-microservice-gatew'!$B$202</f>
         <v>212.17</v>
       </c>
-      <c r="I63" s="40">
+      <c r="I63" s="39">
         <v>0</v>
       </c>
       <c r="J63" s="12">
         <v>2</v>
       </c>
       <c r="K63" s="29">
-        <f>'[77]7-springboot-microservice-gatew'!$B$202</f>
+        <f>'[69]7-springboot-microservice-gatew'!$B$202</f>
         <v>205.685</v>
       </c>
-      <c r="L63" s="39">
+      <c r="L63" s="38">
         <v>0</v>
       </c>
       <c r="M63" s="12">
@@ -9008,8 +10958,8 @@
       </c>
     </row>
     <row r="64" spans="1:13" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
       <c r="C64" s="23" t="s">
         <v>17</v>
       </c>
@@ -9025,21 +10975,21 @@
       <c r="G64" s="12">
         <v>1</v>
       </c>
-      <c r="H64" s="35">
-        <f>'[84]7-springboot-microservice-gatew'!$B$202</f>
+      <c r="H64" s="34">
+        <f>'[70]7-springboot-microservice-gatew'!$B$202</f>
         <v>224.21</v>
       </c>
-      <c r="I64" s="40">
+      <c r="I64" s="39">
         <v>0</v>
       </c>
       <c r="J64" s="12" t="s">
         <v>26</v>
       </c>
       <c r="K64" s="29">
-        <f>'[82]7-springboot-microservice-gatew'!$B$202</f>
+        <f>'[71]7-springboot-microservice-gatew'!$B$202</f>
         <v>206.01499999999999</v>
       </c>
-      <c r="L64" s="39">
+      <c r="L64" s="38">
         <v>0</v>
       </c>
       <c r="M64" s="12">
@@ -9047,8 +10997,8 @@
       </c>
     </row>
     <row r="65" spans="1:14" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
       <c r="C65" s="23" t="s">
         <v>17</v>
       </c>
@@ -9059,26 +11009,26 @@
         <v>84</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G65" s="12">
         <v>1</v>
       </c>
-      <c r="H65" s="35">
-        <f>'[83]7-springboot-microservice-gatew'!$B$202</f>
+      <c r="H65" s="34">
+        <f>'[72]7-springboot-microservice-gatew'!$B$202</f>
         <v>204.41499999999999</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I65" s="39">
         <v>0</v>
       </c>
       <c r="J65" s="12" t="s">
         <v>26</v>
       </c>
       <c r="K65" s="29">
-        <f>'[81]7-springboot-microservice-gatew'!$B$202</f>
+        <f>'[73]7-springboot-microservice-gatew'!$B$202</f>
         <v>202.06</v>
       </c>
-      <c r="L65" s="39">
+      <c r="L65" s="38">
         <v>0</v>
       </c>
       <c r="M65" s="12">
@@ -9086,8 +11036,8 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="58" x14ac:dyDescent="0.3">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="23" t="s">
         <v>17</v>
       </c>
@@ -9103,8 +11053,8 @@
       <c r="G66" s="12">
         <v>1</v>
       </c>
-      <c r="H66" s="34">
-        <f>'[57]7-springboot-microservice-gatew'!$B$1002</f>
+      <c r="H66" s="33">
+        <f>'[74]7-springboot-microservice-gatew'!$B$1002</f>
         <v>342.90100000000001</v>
       </c>
       <c r="I66" s="26">
@@ -9114,7 +11064,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="29">
-        <f>'[58]7-springboot-microservice-gatew'!$B$1002</f>
+        <f>'[75]7-springboot-microservice-gatew'!$B$1002</f>
         <v>256.37</v>
       </c>
       <c r="L66" s="26">
@@ -9125,8 +11075,8 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="23" t="s">
         <v>17</v>
       </c>
@@ -9142,8 +11092,8 @@
       <c r="G67" s="12">
         <v>1</v>
       </c>
-      <c r="H67" s="34">
-        <f>'[59]7-springboot-microservice-gatew'!$B$2002</f>
+      <c r="H67" s="33">
+        <f>'[76]7-springboot-microservice-gatew'!$B$2002</f>
         <v>3492.1334999999999</v>
       </c>
       <c r="I67" s="26">
@@ -9154,7 +11104,7 @@
         <v>2</v>
       </c>
       <c r="K67" s="29">
-        <f>'[60]7-springboot-microservice-gatew'!$B$2002</f>
+        <f>'[77]7-springboot-microservice-gatew'!$B$2002</f>
         <v>3212.97</v>
       </c>
       <c r="L67" s="26">
@@ -9166,43 +11116,43 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="49" t="s">
+      <c r="A68" s="68"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G68" s="51">
+      <c r="G68" s="45">
         <v>1</v>
       </c>
-      <c r="H68" s="52">
-        <f>'[61]7-springboot-microservice-gatew'!$B$3002</f>
+      <c r="H68" s="46">
+        <f>'[78]7-springboot-microservice-gatew'!$B$3002</f>
         <v>7835.5426669999997</v>
       </c>
-      <c r="I68" s="53">
+      <c r="I68" s="47">
         <f>1733/3000</f>
         <v>0.57766666666666666</v>
       </c>
-      <c r="J68" s="51">
+      <c r="J68" s="45">
         <v>2</v>
       </c>
-      <c r="K68" s="56">
-        <f>'[62]7-springboot-microservice-gatew'!$B$3002</f>
+      <c r="K68" s="50">
+        <f>'[79]7-springboot-microservice-gatew'!$B$3002</f>
         <v>7646.0510000000004</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="47">
         <f>1681/3000</f>
         <v>0.56033333333333335</v>
       </c>
-      <c r="M68" s="59">
+      <c r="M68" s="53">
         <v>1500</v>
       </c>
       <c r="N68" s="14" t="s">
@@ -9210,85 +11160,85 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="64" t="s">
+      <c r="A69" s="68"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="D69" s="64" t="s">
+      <c r="D69" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="58" t="s">
+      <c r="E69" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F69" s="58" t="s">
+      <c r="F69" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="G69" s="59">
+      <c r="G69" s="53">
         <v>1</v>
       </c>
-      <c r="H69" s="65">
-        <f>'[63]7-springboot-microservice-gatew'!$B$5002</f>
+      <c r="H69" s="59">
+        <f>'[80]7-springboot-microservice-gatew'!$B$5002</f>
         <v>15258.687400000001</v>
       </c>
-      <c r="I69" s="66">
+      <c r="I69" s="60">
         <f>4353/5000</f>
         <v>0.87060000000000004</v>
       </c>
-      <c r="J69" s="59">
+      <c r="J69" s="53">
         <v>2</v>
       </c>
-      <c r="K69" s="65">
-        <f>'[64]7-springboot-microservice-gatew'!$B$5002</f>
+      <c r="K69" s="59">
+        <f>'[81]7-springboot-microservice-gatew'!$B$5002</f>
         <v>9242.4761999999992</v>
       </c>
-      <c r="L69" s="66">
+      <c r="L69" s="60">
         <f>4333/5000</f>
         <v>0.86660000000000004</v>
       </c>
-      <c r="M69" s="59">
+      <c r="M69" s="53">
         <v>2500</v>
       </c>
       <c r="N69" s="13"/>
     </row>
     <row r="70" spans="1:14" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="49" t="s">
+      <c r="A70" s="68"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="50" t="s">
+      <c r="E70" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F70" s="50" t="s">
+      <c r="F70" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G70" s="51">
+      <c r="G70" s="45">
         <v>1</v>
       </c>
-      <c r="H70" s="52">
-        <f>'[65]7-springboot-microservice-gatew'!$B$10002</f>
+      <c r="H70" s="46">
+        <f>'[82]7-springboot-microservice-gatew'!$B$10002</f>
         <v>38215.710800000001</v>
       </c>
-      <c r="I70" s="53">
+      <c r="I70" s="47">
         <f>9563/10000</f>
         <v>0.95630000000000004</v>
       </c>
-      <c r="J70" s="51">
+      <c r="J70" s="45">
         <v>2</v>
       </c>
-      <c r="K70" s="54">
-        <f>'[66]7-springboot-microservice-gatew'!$B$10002</f>
+      <c r="K70" s="48">
+        <f>'[83]7-springboot-microservice-gatew'!$B$10002</f>
         <v>16777.6018</v>
       </c>
-      <c r="L70" s="53">
+      <c r="L70" s="47">
         <f>9618/10000</f>
         <v>0.96179999999999999</v>
       </c>
-      <c r="M70" s="51">
+      <c r="M70" s="45">
         <v>5000</v>
       </c>
       <c r="N70" s="24"/>
@@ -9319,246 +11269,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116A34E-B1A1-41AF-AF09-F25F39A3677E}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>46</v>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="28">
+        <v>137.57</v>
+      </c>
+      <c r="C2" s="28">
+        <v>128.47999999999999</v>
+      </c>
+      <c r="D2" s="61">
+        <v>44.575000000000003</v>
+      </c>
+      <c r="E2" s="61">
+        <v>43.854999999999997</v>
+      </c>
+      <c r="F2" s="61">
+        <v>142.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>500</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="30">
-        <f>'[28]4-jersey-microservice-gateway-t'!$B$1002</f>
+      <c r="B3" s="27">
         <v>118.33499999999999</v>
       </c>
-      <c r="F2" s="7">
-        <v>2</v>
-      </c>
-      <c r="G2" s="27">
-        <f>'[29]4-jersey-microservice-gateway-t'!$B$1002</f>
+      <c r="C3" s="27">
         <v>118.13200000000001</v>
       </c>
+      <c r="D3" s="61">
+        <v>51.219000000000001</v>
+      </c>
+      <c r="E3" s="61">
+        <v>41.392000000000003</v>
+      </c>
+      <c r="F3" s="61">
+        <v>137.572</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>1000</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="30">
-        <f>'[30]4-jersey-microservice-gateway-t'!$B$2002</f>
+      <c r="B4" s="27">
         <v>296.32600000000002</v>
       </c>
-      <c r="F3" s="7">
-        <v>2</v>
-      </c>
-      <c r="G3" s="30">
-        <f>'[31]4-jersey-microservice-gateway-t'!$B$2002</f>
+      <c r="C4" s="27">
         <v>286.07900000000001</v>
       </c>
+      <c r="D4" s="61">
+        <v>44.276000000000003</v>
+      </c>
+      <c r="E4" s="61">
+        <v>38.018000000000001</v>
+      </c>
+      <c r="F4" s="61">
+        <v>793.76350000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="18">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>1500</v>
       </c>
-      <c r="D4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="30">
-        <f>'[32]4-jersey-microservice-gateway-t'!$B$3002</f>
+      <c r="B5" s="27">
         <v>1924.9263330000001</v>
       </c>
-      <c r="F4" s="18">
-        <v>2</v>
-      </c>
-      <c r="G4" s="30">
-        <f>'[33]4-jersey-microservice-gateway-t'!$B$3002</f>
+      <c r="C5" s="27">
         <v>1744.3236669999999</v>
       </c>
+      <c r="D5" s="61">
+        <v>39.337666669999997</v>
+      </c>
+      <c r="E5" s="61">
+        <v>35.914999999999999</v>
+      </c>
+      <c r="F5" s="61">
+        <v>2903.1616666666669</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="18">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>2500</v>
       </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="30">
-        <f>'[34]4-jersey-microservice-gateway-t'!$B$5002</f>
+      <c r="B6" s="27">
         <v>2074.3674000000001</v>
       </c>
-      <c r="F5" s="18">
-        <v>2</v>
-      </c>
-      <c r="G5" s="30">
-        <f>'[35]4-jersey-microservice-gateway-t'!$B$5002</f>
+      <c r="C6" s="27">
         <v>2013.7991999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="12">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="34">
-        <f>'[36]4-jersey-microservice-gateway-t'!$B$10002</f>
-        <v>2075.6810999999998</v>
-      </c>
-      <c r="F6" s="12">
-        <v>2</v>
-      </c>
-      <c r="G6" s="31">
-        <f>'[37]4-jersey-microservice-gateway-t'!$B$10002</f>
-        <v>2499.2819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>100</v>
-      </c>
-      <c r="B11" s="7">
-        <v>137.57</v>
-      </c>
-      <c r="C11" s="7">
-        <v>128.47999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>500</v>
-      </c>
-      <c r="B12" s="47">
-        <v>118.33499999999999</v>
-      </c>
-      <c r="C12" s="47">
-        <v>118.13200000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B13" s="47">
-        <v>296.32600000000002</v>
-      </c>
-      <c r="C13" s="47">
-        <v>286.07900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>1500</v>
-      </c>
-      <c r="B14" s="47">
-        <v>1924.9263330000001</v>
-      </c>
-      <c r="C14" s="47">
-        <v>1744.3236669999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>2500</v>
-      </c>
-      <c r="B15" s="47">
-        <v>2074.3674000000001</v>
-      </c>
-      <c r="C15" s="47">
-        <v>2013.7991999999999</v>
+      <c r="D6" s="61">
+        <v>42.184600000000003</v>
+      </c>
+      <c r="E6" s="61">
+        <v>40.210599999999999</v>
+      </c>
+      <c r="F6" s="61">
+        <v>1894.5781999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E9:G9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9568,83 +11417,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8633146-CFEC-4368-96A7-B59E00117447}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.296875" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.8984375" customWidth="1"/>
     <col min="3" max="3" width="30.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>104</v>
+      <c r="B1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="28">
+        <v>212.17</v>
+      </c>
+      <c r="C2" s="28">
+        <v>205.69</v>
+      </c>
+      <c r="D2" s="62">
+        <v>50.115000000000002</v>
+      </c>
+      <c r="E2" s="62">
+        <v>214.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="7">
-        <v>212.17</v>
-      </c>
-      <c r="C3" s="7">
-        <v>205.69</v>
+        <v>200</v>
+      </c>
+      <c r="B3" s="28">
+        <v>224.21</v>
+      </c>
+      <c r="C3" s="28">
+        <v>206.02</v>
+      </c>
+      <c r="D3" s="62">
+        <v>48.795000000000002</v>
+      </c>
+      <c r="E3" s="62">
+        <v>214.91499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>200</v>
-      </c>
-      <c r="B4" s="7">
-        <v>224.21</v>
-      </c>
-      <c r="C4" s="7">
-        <v>206.02</v>
+        <v>300</v>
+      </c>
+      <c r="B4" s="28">
+        <v>204.42</v>
+      </c>
+      <c r="C4" s="28">
+        <v>202.06</v>
+      </c>
+      <c r="D4" s="62">
+        <v>51.391666666666666</v>
+      </c>
+      <c r="E4" s="62">
+        <v>198.745</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>300</v>
-      </c>
-      <c r="B5" s="7">
-        <v>204.42</v>
-      </c>
-      <c r="C5" s="7">
-        <v>202.06</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>500</v>
+      </c>
+      <c r="B5" s="27">
+        <v>342.90100000000001</v>
+      </c>
+      <c r="C5" s="27">
+        <v>256.37</v>
+      </c>
+      <c r="D5" s="62">
+        <v>52.707999999999998</v>
+      </c>
+      <c r="E5" s="62">
+        <v>353.48700000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>500</v>
-      </c>
-      <c r="B6" s="47">
-        <v>342.90100000000001</v>
-      </c>
-      <c r="C6" s="47">
-        <v>256.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
         <v>1000</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B6" s="27">
         <v>3492.1334999999999</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C6" s="27">
         <v>3212.97</v>
+      </c>
+      <c r="D6" s="62">
+        <v>47.884</v>
+      </c>
+      <c r="E6" s="62">
+        <v>3777.9575</v>
       </c>
     </row>
   </sheetData>
@@ -9701,10 +11588,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="43">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="65" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -9720,7 +11607,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="8">
-        <f>'[67]a-jersey-microservice-jdbc-bill'!$B$902</f>
+        <f>'[84]a-jersey-microservice-jdbc-bill'!$B$902</f>
         <v>34.848888888888887</v>
       </c>
       <c r="H2" s="10">
@@ -9731,8 +11618,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="5" t="s">
         <v>95</v>
       </c>
@@ -9757,8 +11644,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
@@ -9772,7 +11659,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="8">
-        <f>'[68]a-jersey-microservice-jdbc-cusc'!$B$502</f>
+        <f>'[85]a-jersey-microservice-jdbc-cusc'!$B$502</f>
         <v>66.483999999999995</v>
       </c>
       <c r="H4" s="10">
@@ -9783,10 +11670,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="43">
+      <c r="A5" s="65">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="65" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -9802,7 +11689,7 @@
         <v>92</v>
       </c>
       <c r="G5" s="8">
-        <f>'[69]b-springboot-microservice-jpa-b'!$B$902</f>
+        <f>'[86]b-springboot-microservice-jpa-b'!$B$902</f>
         <v>28.174444439999998</v>
       </c>
       <c r="H5" s="10">
@@ -9813,8 +11700,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="5" t="s">
         <v>96</v>
       </c>
@@ -9827,8 +11714,8 @@
       <c r="F6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="42">
-        <f>'[70]b-springboot-microservice-jpa-b'!$B$1002</f>
+      <c r="G6" s="41">
+        <f>'[87]b-springboot-microservice-jpa-b'!$B$1002</f>
         <v>234.75200000000001</v>
       </c>
       <c r="H6" s="10">
@@ -9839,8 +11726,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="5" t="s">
         <v>97</v>
       </c>
@@ -9854,7 +11741,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="8">
-        <f>'[71]b-springboot-microservice-jpa-c'!$B$502</f>
+        <f>'[88]b-springboot-microservice-jpa-c'!$B$502</f>
         <v>64.343999999999994</v>
       </c>
       <c r="H7" s="10">

--- a/jmeter/test-result/ExcelSummary/★Test-Summary.xlsx
+++ b/jmeter/test-result/ExcelSummary/★Test-Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\api-test-scripts\jmeter\test-result\ExcelSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1718F8-39AE-4CD6-BC57-E5215A91EE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CB7572-DB16-4061-8E15-31BF3EFA3A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="852" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="852" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總覽-交易服務" sheetId="21" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="105">
   <si>
     <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,14 +601,6 @@
 Ramp-up period(seconds)：60
 Loop Count：2
 Thread Delay(in milliseconds)：5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gw-instance數量為1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gw-instance數量為2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3033,7 +3025,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gw-instance數量為1</c:v>
+                  <c:v>microservice-gateway-instance數量為1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3126,7 +3118,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gw-instance數量為2</c:v>
+                  <c:v>microservice-gateway-instance數量為2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3761,7 +3753,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gw-instance數量為1</c:v>
+                  <c:v>microservice-gateway-instance數量為1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3839,7 +3831,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gw-instance數量為2</c:v>
+                  <c:v>microservice-gateway-instance數量為2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11271,8 +11263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116A34E-B1A1-41AF-AF09-F25F39A3677E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11292,19 +11284,19 @@
         <v>98</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -11419,8 +11411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8633146-CFEC-4368-96A7-B59E00117447}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11432,7 +11424,7 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -11443,10 +11435,10 @@
         <v>101</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
